--- a/Parent_Turtle_ver.servo_main_ver.3/Parent_Turtle_no1_video.xlsx
+++ b/Parent_Turtle_ver.servo_main_ver.3/Parent_Turtle_no1_video.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mizuta\Desktop\RC19_Circuit\Parent_Turtle_ver.servo_main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mizuta\Desktop\RC19_Circuit\Parent_Turtle_ver.servo_main_ver.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16665" windowHeight="5790" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ピン配置" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="243">
   <si>
     <t>VSS_A</t>
     <phoneticPr fontId="1"/>
@@ -995,6 +995,18 @@
   </si>
   <si>
     <t>PC3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SERIAL2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PB11</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2610,30 +2622,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2644,69 +2719,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3538,10 +3550,10 @@
   <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J99" sqref="J99"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3566,18 +3578,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="19" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="105"/>
+      <c r="B1" s="133"/>
       <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
       <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3590,11 +3602,11 @@
       <c r="J1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="116"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="137"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21" t="s">
         <v>26</v>
@@ -3608,10 +3620,10 @@
       <c r="R1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="105" t="s">
+      <c r="S1" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="105"/>
+      <c r="T1" s="133"/>
       <c r="U1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3620,10 +3632,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="125">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -3635,7 +3647,7 @@
       <c r="E2" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="132" t="s">
         <v>216</v>
       </c>
       <c r="H2" s="86" t="s">
@@ -3692,8 +3704,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="29" t="s">
         <v>35</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="32"/>
-      <c r="G3" s="111"/>
+      <c r="G3" s="132"/>
       <c r="H3" s="86" t="s">
         <v>212</v>
       </c>
@@ -3759,8 +3771,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="107"/>
-      <c r="B4" s="109">
+      <c r="A4" s="119"/>
+      <c r="B4" s="125">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -3772,7 +3784,7 @@
       <c r="E4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="112" t="s">
+      <c r="G4" s="123" t="s">
         <v>217</v>
       </c>
       <c r="H4" s="88" t="s">
@@ -3829,8 +3841,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="107"/>
-      <c r="B5" s="112"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
@@ -3840,7 +3852,7 @@
       <c r="E5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="109"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="89" t="s">
         <v>214</v>
       </c>
@@ -3895,8 +3907,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="107"/>
-      <c r="B6" s="110">
+      <c r="A6" s="119"/>
+      <c r="B6" s="122">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -3911,10 +3923,15 @@
       <c r="F6" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="I6" s="86" t="str">
+      <c r="G6" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="I6" s="86">
         <f t="shared" si="6"/>
-        <v/>
+        <v>47</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="33" t="str">
@@ -3927,15 +3944,15 @@
       </c>
       <c r="M6" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>PB10</v>
+        <v/>
       </c>
       <c r="O6" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P6" s="1" t="str">
+      <c r="P6" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H6,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H6,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>47</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="11"/>
@@ -3955,7 +3972,7 @@
       </c>
       <c r="U6" s="1" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>SERIAL2</v>
       </c>
       <c r="V6" s="1" t="str">
         <f t="shared" si="16"/>
@@ -3963,8 +3980,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
@@ -3977,10 +3994,13 @@
       <c r="F7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="I7" s="86" t="str">
+      <c r="G7" s="132"/>
+      <c r="H7" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="86">
         <f t="shared" si="6"/>
-        <v/>
+        <v>48</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="33" t="str">
@@ -3993,15 +4013,15 @@
       </c>
       <c r="M7" s="28" t="str">
         <f t="shared" si="9"/>
-        <v>PB11</v>
+        <v/>
       </c>
       <c r="O7" s="1" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="P7" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H7,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H7,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>48</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="11"/>
@@ -4021,7 +4041,7 @@
       </c>
       <c r="U7" s="1" t="str">
         <f t="shared" si="15"/>
-        <v/>
+        <v>SERIAL2</v>
       </c>
       <c r="V7" s="1" t="str">
         <f t="shared" si="16"/>
@@ -4029,8 +4049,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="107"/>
-      <c r="B8" s="109">
+      <c r="A8" s="119"/>
+      <c r="B8" s="125">
         <v>4</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -4042,7 +4062,7 @@
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="112"/>
+      <c r="G8" s="123"/>
       <c r="H8" s="88"/>
       <c r="I8" s="88" t="str">
         <f>IF(O8="",P8,O8)</f>
@@ -4095,8 +4115,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="107"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="34" t="s">
         <v>35</v>
       </c>
@@ -4106,7 +4126,7 @@
       <c r="E9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="109"/>
+      <c r="G9" s="125"/>
       <c r="H9" s="89"/>
       <c r="I9" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4159,8 +4179,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="107"/>
-      <c r="B10" s="110">
+      <c r="A10" s="119"/>
+      <c r="B10" s="122">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -4171,7 +4191,7 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="111"/>
+      <c r="G10" s="132"/>
       <c r="I10" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4223,8 +4243,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="107"/>
-      <c r="B11" s="110"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
@@ -4233,7 +4253,7 @@
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="111"/>
+      <c r="G11" s="132"/>
       <c r="I11" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4285,8 +4305,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="107"/>
-      <c r="B12" s="109">
+      <c r="A12" s="119"/>
+      <c r="B12" s="125">
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -4295,7 +4315,7 @@
       <c r="D12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="112"/>
+      <c r="G12" s="123"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4348,15 +4368,15 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="107"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="109"/>
+      <c r="G13" s="125"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4409,8 +4429,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="107"/>
-      <c r="B14" s="110">
+      <c r="A14" s="119"/>
+      <c r="B14" s="122">
         <v>7</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -4419,7 +4439,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="111"/>
+      <c r="G14" s="132"/>
       <c r="I14" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4471,15 +4491,15 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="107"/>
-      <c r="B15" s="110"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="111"/>
+      <c r="G15" s="132"/>
       <c r="I15" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4531,14 +4551,14 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="107"/>
-      <c r="B16" s="109">
+      <c r="A16" s="119"/>
+      <c r="B16" s="125">
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="112"/>
+      <c r="G16" s="123"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4591,15 +4611,15 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="108"/>
-      <c r="B17" s="117"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="118"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="90"/>
       <c r="I17" s="90" t="str">
         <f t="shared" si="6"/>
@@ -4652,10 +4672,10 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="109">
+      <c r="B18" s="125">
         <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -4667,7 +4687,7 @@
       <c r="E18" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="120"/>
+      <c r="G18" s="107"/>
       <c r="I18" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4719,8 +4739,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="107"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="123"/>
       <c r="C19" s="29" t="s">
         <v>35</v>
       </c>
@@ -4730,7 +4750,7 @@
       <c r="E19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="121"/>
+      <c r="G19" s="106"/>
       <c r="I19" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4782,8 +4802,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110">
+      <c r="A20" s="119"/>
+      <c r="B20" s="122">
         <v>2</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -4796,7 +4816,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="38"/>
-      <c r="G20" s="112" t="s">
+      <c r="G20" s="123" t="s">
         <v>215</v>
       </c>
       <c r="H20" s="88" t="s">
@@ -4853,8 +4873,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="39" t="s">
         <v>62</v>
       </c>
@@ -4865,7 +4885,7 @@
         <v>64</v>
       </c>
       <c r="F21" s="42"/>
-      <c r="G21" s="118"/>
+      <c r="G21" s="131"/>
       <c r="H21" s="90" t="s">
         <v>210</v>
       </c>
@@ -4920,10 +4940,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="123">
+      <c r="B22" s="121">
         <v>1</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -4936,7 +4956,7 @@
         <v>67</v>
       </c>
       <c r="F22" s="46"/>
-      <c r="G22" s="120"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="86" t="s">
         <v>233</v>
       </c>
@@ -4991,8 +5011,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="107"/>
-      <c r="B23" s="112"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="123"/>
       <c r="C23" s="34" t="s">
         <v>68</v>
       </c>
@@ -5002,7 +5022,7 @@
       <c r="E23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="121"/>
+      <c r="G23" s="106"/>
       <c r="H23" s="86" t="s">
         <v>234</v>
       </c>
@@ -5057,8 +5077,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="107"/>
-      <c r="B24" s="110">
+      <c r="A24" s="119"/>
+      <c r="B24" s="122">
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -5069,7 +5089,7 @@
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="112"/>
+      <c r="G24" s="123"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5078,7 +5098,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="33" t="str">
         <f t="shared" si="7"/>
-        <v>PB10</v>
+        <v/>
       </c>
       <c r="L24" s="24" t="str">
         <f t="shared" si="8"/>
@@ -5122,8 +5142,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="107"/>
-      <c r="B25" s="110"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="34" t="s">
         <v>70</v>
       </c>
@@ -5132,7 +5152,7 @@
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="109"/>
+      <c r="G25" s="125"/>
       <c r="H25" s="89"/>
       <c r="I25" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5141,7 +5161,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="33" t="str">
         <f t="shared" si="7"/>
-        <v>PB11</v>
+        <v/>
       </c>
       <c r="L25" s="24" t="str">
         <f t="shared" si="8"/>
@@ -5185,8 +5205,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="107"/>
-      <c r="B26" s="109">
+      <c r="A26" s="119"/>
+      <c r="B26" s="125">
         <v>3</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -5197,7 +5217,7 @@
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="124"/>
+      <c r="G26" s="105"/>
       <c r="I26" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5249,8 +5269,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="107"/>
-      <c r="B27" s="110"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="34" t="s">
         <v>70</v>
       </c>
@@ -5261,7 +5281,7 @@
         <v>78</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="121"/>
+      <c r="G27" s="106"/>
       <c r="I27" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5313,14 +5333,14 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" s="107"/>
-      <c r="B28" s="110">
+      <c r="A28" s="119"/>
+      <c r="B28" s="122">
         <v>4</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="112"/>
+      <c r="G28" s="123"/>
       <c r="H28" s="88"/>
       <c r="I28" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5373,15 +5393,15 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="108"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="129"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="118"/>
+      <c r="G29" s="131"/>
       <c r="H29" s="90"/>
       <c r="I29" s="90" t="str">
         <f t="shared" si="6"/>
@@ -5434,7 +5454,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="128" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -5496,8 +5516,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="107"/>
-      <c r="B31" s="110" t="s">
+      <c r="A31" s="119"/>
+      <c r="B31" s="122" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -5506,7 +5526,7 @@
       <c r="D31" s="36"/>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="124"/>
+      <c r="G31" s="105"/>
       <c r="H31" s="88"/>
       <c r="I31" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5559,14 +5579,14 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="107"/>
-      <c r="B32" s="110"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="50"/>
-      <c r="G32" s="125"/>
+      <c r="G32" s="108"/>
       <c r="I32" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5618,14 +5638,14 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A33" s="107"/>
-      <c r="B33" s="110"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="50"/>
-      <c r="G33" s="125"/>
+      <c r="G33" s="108"/>
       <c r="I33" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5677,14 +5697,14 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="122"/>
       <c r="C34" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="50"/>
-      <c r="G34" s="125"/>
+      <c r="G34" s="108"/>
       <c r="I34" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5736,15 +5756,15 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A35" s="107"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="121"/>
+      <c r="G35" s="106"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5797,15 +5817,15 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="107"/>
-      <c r="B36" s="109" t="s">
+      <c r="A36" s="119"/>
+      <c r="B36" s="125" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="48"/>
-      <c r="G36" s="124"/>
+      <c r="G36" s="105"/>
       <c r="I36" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5857,14 +5877,14 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="107"/>
-      <c r="B37" s="110"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="34" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="50"/>
-      <c r="G37" s="125"/>
+      <c r="G37" s="108"/>
       <c r="I37" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5916,14 +5936,14 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="107"/>
-      <c r="B38" s="110"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="122"/>
       <c r="C38" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="50"/>
-      <c r="G38" s="125"/>
+      <c r="G38" s="108"/>
       <c r="I38" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5975,14 +5995,14 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="107"/>
-      <c r="B39" s="110"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="50"/>
-      <c r="G39" s="125"/>
+      <c r="G39" s="108"/>
       <c r="I39" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6034,12 +6054,12 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="119"/>
-      <c r="B40" s="112"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="123"/>
       <c r="C40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="126"/>
+      <c r="G40" s="124"/>
       <c r="I40" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6091,10 +6111,10 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="127" t="s">
+      <c r="A41" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="123">
+      <c r="B41" s="121">
         <v>1</v>
       </c>
       <c r="C41" s="52" t="s">
@@ -6107,7 +6127,7 @@
       <c r="F41" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="120" t="s">
+      <c r="G41" s="107" t="s">
         <v>208</v>
       </c>
       <c r="H41" s="85" t="s">
@@ -6164,8 +6184,8 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42" s="128"/>
-      <c r="B42" s="109"/>
+      <c r="A42" s="127"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="54" t="s">
         <v>91</v>
       </c>
@@ -6178,7 +6198,7 @@
       <c r="F42" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="125"/>
+      <c r="G42" s="108"/>
       <c r="I42" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6230,8 +6250,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="128"/>
-      <c r="B43" s="110"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="122"/>
       <c r="C43" s="55" t="s">
         <v>93</v>
       </c>
@@ -6242,7 +6262,7 @@
       <c r="F43" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="125"/>
+      <c r="G43" s="108"/>
       <c r="H43" s="86" t="s">
         <v>219</v>
       </c>
@@ -6297,8 +6317,8 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="128"/>
-      <c r="B44" s="110"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="55" t="s">
         <v>95</v>
       </c>
@@ -6311,7 +6331,7 @@
       <c r="F44" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="125"/>
+      <c r="G44" s="108"/>
       <c r="I44" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6363,8 +6383,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45" s="128"/>
-      <c r="B45" s="110"/>
+      <c r="A45" s="127"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="55" t="s">
         <v>98</v>
       </c>
@@ -6375,7 +6395,7 @@
       <c r="F45" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="125"/>
+      <c r="G45" s="108"/>
       <c r="H45" s="86" t="s">
         <v>220</v>
       </c>
@@ -6430,8 +6450,8 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A46" s="128"/>
-      <c r="B46" s="110"/>
+      <c r="A46" s="127"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="55" t="s">
         <v>100</v>
       </c>
@@ -6444,7 +6464,7 @@
       <c r="F46" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="125"/>
+      <c r="G46" s="108"/>
       <c r="I46" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6496,8 +6516,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A47" s="128"/>
-      <c r="B47" s="110"/>
+      <c r="A47" s="127"/>
+      <c r="B47" s="122"/>
       <c r="C47" s="55" t="s">
         <v>104</v>
       </c>
@@ -6508,7 +6528,7 @@
       <c r="F47" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="121"/>
+      <c r="G47" s="106"/>
       <c r="H47" s="89" t="s">
         <v>221</v>
       </c>
@@ -6563,8 +6583,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48" s="128"/>
-      <c r="B48" s="109">
+      <c r="A48" s="127"/>
+      <c r="B48" s="125">
         <v>2</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -6579,7 +6599,7 @@
       <c r="F48" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="124" t="s">
+      <c r="G48" s="105" t="s">
         <v>230</v>
       </c>
       <c r="H48" s="86" t="s">
@@ -6636,8 +6656,8 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A49" s="128"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="55" t="s">
         <v>93</v>
       </c>
@@ -6647,7 +6667,7 @@
       <c r="E49" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="125"/>
+      <c r="G49" s="108"/>
       <c r="H49" s="86" t="s">
         <v>223</v>
       </c>
@@ -6702,8 +6722,8 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A50" s="128"/>
-      <c r="B50" s="110"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="122"/>
       <c r="C50" s="55" t="s">
         <v>98</v>
       </c>
@@ -6713,7 +6733,7 @@
       <c r="E50" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="125"/>
+      <c r="G50" s="108"/>
       <c r="H50" s="86" t="s">
         <v>224</v>
       </c>
@@ -6728,7 +6748,7 @@
       </c>
       <c r="L50" s="24" t="str">
         <f t="shared" si="8"/>
-        <v>PB10</v>
+        <v/>
       </c>
       <c r="M50" s="28" t="str">
         <f t="shared" si="9"/>
@@ -6768,8 +6788,8 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A51" s="128"/>
-      <c r="B51" s="112"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="123"/>
       <c r="C51" s="56" t="s">
         <v>104</v>
       </c>
@@ -6779,7 +6799,7 @@
       <c r="E51" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="121"/>
+      <c r="G51" s="106"/>
       <c r="H51" s="89" t="s">
         <v>225</v>
       </c>
@@ -6794,7 +6814,7 @@
       </c>
       <c r="L51" s="24" t="str">
         <f t="shared" si="8"/>
-        <v>PB11</v>
+        <v/>
       </c>
       <c r="M51" s="28" t="str">
         <f t="shared" si="9"/>
@@ -6834,8 +6854,8 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52" s="128"/>
-      <c r="B52" s="110">
+      <c r="A52" s="127"/>
+      <c r="B52" s="122">
         <v>3</v>
       </c>
       <c r="C52" s="55" t="s">
@@ -6850,7 +6870,7 @@
       <c r="F52" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="124" t="s">
+      <c r="G52" s="105" t="s">
         <v>208</v>
       </c>
       <c r="H52" s="86" t="s">
@@ -6907,8 +6927,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A53" s="128"/>
-      <c r="B53" s="110"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="122"/>
       <c r="C53" s="55" t="s">
         <v>93</v>
       </c>
@@ -6921,7 +6941,7 @@
       <c r="F53" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="125"/>
+      <c r="G53" s="108"/>
       <c r="H53" s="86" t="s">
         <v>227</v>
       </c>
@@ -6976,8 +6996,8 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A54" s="128"/>
-      <c r="B54" s="110"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="122"/>
       <c r="C54" s="55" t="s">
         <v>98</v>
       </c>
@@ -6988,7 +7008,7 @@
       <c r="F54" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="125"/>
+      <c r="G54" s="108"/>
       <c r="H54" s="86" t="s">
         <v>228</v>
       </c>
@@ -7043,8 +7063,8 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A55" s="128"/>
-      <c r="B55" s="110"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="122"/>
       <c r="C55" s="55" t="s">
         <v>104</v>
       </c>
@@ -7055,7 +7075,7 @@
       <c r="F55" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="121"/>
+      <c r="G55" s="106"/>
       <c r="H55" s="89" t="s">
         <v>229</v>
       </c>
@@ -7110,8 +7130,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A56" s="128"/>
-      <c r="B56" s="109">
+      <c r="A56" s="127"/>
+      <c r="B56" s="125">
         <v>4</v>
       </c>
       <c r="C56" s="54" t="s">
@@ -7175,8 +7195,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A57" s="128"/>
-      <c r="B57" s="110"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="122"/>
       <c r="C57" s="55" t="s">
         <v>93</v>
       </c>
@@ -7238,8 +7258,8 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A58" s="128"/>
-      <c r="B58" s="110"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="122"/>
       <c r="C58" s="55" t="s">
         <v>98</v>
       </c>
@@ -7301,8 +7321,8 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A59" s="128"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="123"/>
       <c r="C59" s="56" t="s">
         <v>104</v>
       </c>
@@ -7369,8 +7389,8 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A60" s="128"/>
-      <c r="B60" s="110">
+      <c r="A60" s="127"/>
+      <c r="B60" s="122">
         <v>5</v>
       </c>
       <c r="C60" s="55" t="s">
@@ -7381,7 +7401,7 @@
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
-      <c r="G60" s="124"/>
+      <c r="G60" s="105"/>
       <c r="I60" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7433,15 +7453,15 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A61" s="128"/>
-      <c r="B61" s="110"/>
+      <c r="A61" s="127"/>
+      <c r="B61" s="122"/>
       <c r="C61" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="125"/>
+      <c r="G61" s="108"/>
       <c r="I61" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7493,15 +7513,15 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A62" s="128"/>
-      <c r="B62" s="110"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="122"/>
       <c r="C62" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="125"/>
+      <c r="G62" s="108"/>
       <c r="I62" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7553,8 +7573,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A63" s="128"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="127"/>
+      <c r="B63" s="122"/>
       <c r="C63" s="55" t="s">
         <v>104</v>
       </c>
@@ -7563,7 +7583,7 @@
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="121"/>
+      <c r="G63" s="106"/>
       <c r="H63" s="89"/>
       <c r="I63" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7616,8 +7636,8 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A64" s="128"/>
-      <c r="B64" s="109">
+      <c r="A64" s="127"/>
+      <c r="B64" s="125">
         <v>6</v>
       </c>
       <c r="C64" s="54" t="s">
@@ -7675,8 +7695,8 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A65" s="128"/>
-      <c r="B65" s="110"/>
+      <c r="A65" s="127"/>
+      <c r="B65" s="122"/>
       <c r="C65" s="55" t="s">
         <v>93</v>
       </c>
@@ -7732,8 +7752,8 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A66" s="128"/>
-      <c r="B66" s="110"/>
+      <c r="A66" s="127"/>
+      <c r="B66" s="122"/>
       <c r="C66" s="55" t="s">
         <v>98</v>
       </c>
@@ -7789,8 +7809,8 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A67" s="128"/>
-      <c r="B67" s="112"/>
+      <c r="A67" s="127"/>
+      <c r="B67" s="123"/>
       <c r="C67" s="56" t="s">
         <v>104</v>
       </c>
@@ -7847,8 +7867,8 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A68" s="128"/>
-      <c r="B68" s="110">
+      <c r="A68" s="127"/>
+      <c r="B68" s="122">
         <v>8</v>
       </c>
       <c r="C68" s="55" t="s">
@@ -7911,8 +7931,8 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A69" s="128"/>
-      <c r="B69" s="109"/>
+      <c r="A69" s="127"/>
+      <c r="B69" s="125"/>
       <c r="C69" s="54" t="s">
         <v>91</v>
       </c>
@@ -7974,8 +7994,8 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A70" s="128"/>
-      <c r="B70" s="110"/>
+      <c r="A70" s="127"/>
+      <c r="B70" s="122"/>
       <c r="C70" s="55" t="s">
         <v>93</v>
       </c>
@@ -8034,8 +8054,8 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A71" s="128"/>
-      <c r="B71" s="110"/>
+      <c r="A71" s="127"/>
+      <c r="B71" s="122"/>
       <c r="C71" s="55" t="s">
         <v>95</v>
       </c>
@@ -8097,8 +8117,8 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A72" s="128"/>
-      <c r="B72" s="110"/>
+      <c r="A72" s="127"/>
+      <c r="B72" s="122"/>
       <c r="C72" s="55" t="s">
         <v>98</v>
       </c>
@@ -8157,8 +8177,8 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A73" s="128"/>
-      <c r="B73" s="110"/>
+      <c r="A73" s="127"/>
+      <c r="B73" s="122"/>
       <c r="C73" s="55" t="s">
         <v>100</v>
       </c>
@@ -8220,8 +8240,8 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A74" s="128"/>
-      <c r="B74" s="110"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="122"/>
       <c r="C74" s="55" t="s">
         <v>104</v>
       </c>
@@ -8283,8 +8303,8 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A75" s="128"/>
-      <c r="B75" s="112">
+      <c r="A75" s="127"/>
+      <c r="B75" s="123">
         <v>9</v>
       </c>
       <c r="C75" s="55" t="s">
@@ -8297,7 +8317,7 @@
         <v>113</v>
       </c>
       <c r="F75" s="38"/>
-      <c r="G75" s="124"/>
+      <c r="G75" s="105"/>
       <c r="I75" s="86" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8349,8 +8369,8 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A76" s="128"/>
-      <c r="B76" s="109"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="125"/>
       <c r="C76" s="55" t="s">
         <v>93</v>
       </c>
@@ -8361,7 +8381,7 @@
         <v>114</v>
       </c>
       <c r="F76" s="32"/>
-      <c r="G76" s="121"/>
+      <c r="G76" s="106"/>
       <c r="H76" s="89"/>
       <c r="I76" s="89" t="str">
         <f t="shared" si="17"/>
@@ -8414,7 +8434,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A77" s="128"/>
+      <c r="A77" s="127"/>
       <c r="B77" s="57">
         <v>10</v>
       </c>
@@ -8479,7 +8499,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A78" s="128"/>
+      <c r="A78" s="127"/>
       <c r="B78" s="37">
         <v>11</v>
       </c>
@@ -8542,8 +8562,8 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A79" s="128"/>
-      <c r="B79" s="136">
+      <c r="A79" s="127"/>
+      <c r="B79" s="116">
         <v>12</v>
       </c>
       <c r="C79" s="56" t="s">
@@ -8606,8 +8626,8 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A80" s="128"/>
-      <c r="B80" s="137"/>
+      <c r="A80" s="127"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="56" t="s">
         <v>93</v>
       </c>
@@ -8669,7 +8689,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A81" s="128"/>
+      <c r="A81" s="127"/>
       <c r="B81" s="37">
         <v>13</v>
       </c>
@@ -8732,7 +8752,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="128"/>
+      <c r="A82" s="127"/>
       <c r="B82" s="37">
         <v>14</v>
       </c>
@@ -8796,10 +8816,10 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A83" s="122" t="s">
+      <c r="A83" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="123">
+      <c r="B83" s="121">
         <v>1</v>
       </c>
       <c r="C83" s="58" t="s">
@@ -8863,8 +8883,8 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A84" s="107"/>
-      <c r="B84" s="110"/>
+      <c r="A84" s="119"/>
+      <c r="B84" s="122"/>
       <c r="C84" s="55" t="s">
         <v>117</v>
       </c>
@@ -8923,8 +8943,8 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A85" s="107"/>
-      <c r="B85" s="110"/>
+      <c r="A85" s="119"/>
+      <c r="B85" s="122"/>
       <c r="C85" s="55" t="s">
         <v>118</v>
       </c>
@@ -8983,8 +9003,8 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A86" s="107"/>
-      <c r="B86" s="110"/>
+      <c r="A86" s="119"/>
+      <c r="B86" s="122"/>
       <c r="C86" s="55" t="s">
         <v>119</v>
       </c>
@@ -9043,8 +9063,8 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A87" s="107"/>
-      <c r="B87" s="110"/>
+      <c r="A87" s="119"/>
+      <c r="B87" s="122"/>
       <c r="C87" s="55" t="s">
         <v>120</v>
       </c>
@@ -9103,8 +9123,8 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A88" s="107"/>
-      <c r="B88" s="110"/>
+      <c r="A88" s="119"/>
+      <c r="B88" s="122"/>
       <c r="C88" s="55" t="s">
         <v>121</v>
       </c>
@@ -9163,8 +9183,8 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A89" s="107"/>
-      <c r="B89" s="110"/>
+      <c r="A89" s="119"/>
+      <c r="B89" s="122"/>
       <c r="C89" s="55" t="s">
         <v>122</v>
       </c>
@@ -9223,8 +9243,8 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A90" s="107"/>
-      <c r="B90" s="110"/>
+      <c r="A90" s="119"/>
+      <c r="B90" s="122"/>
       <c r="C90" s="55" t="s">
         <v>123</v>
       </c>
@@ -9283,8 +9303,8 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A91" s="107"/>
-      <c r="B91" s="110"/>
+      <c r="A91" s="119"/>
+      <c r="B91" s="122"/>
       <c r="C91" s="55" t="s">
         <v>124</v>
       </c>
@@ -9343,8 +9363,8 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A92" s="107"/>
-      <c r="B92" s="110"/>
+      <c r="A92" s="119"/>
+      <c r="B92" s="122"/>
       <c r="C92" s="55" t="s">
         <v>125</v>
       </c>
@@ -9403,15 +9423,15 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A93" s="107"/>
-      <c r="B93" s="110"/>
+      <c r="A93" s="119"/>
+      <c r="B93" s="122"/>
       <c r="C93" s="55" t="s">
         <v>126</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G93" s="125" t="s">
+      <c r="G93" s="108" t="s">
         <v>235</v>
       </c>
       <c r="H93" s="86" t="s">
@@ -9468,15 +9488,15 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" s="107"/>
-      <c r="B94" s="110"/>
+      <c r="A94" s="119"/>
+      <c r="B94" s="122"/>
       <c r="C94" s="55" t="s">
         <v>127</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G94" s="125"/>
+      <c r="G94" s="108"/>
       <c r="H94" s="86" t="s">
         <v>237</v>
       </c>
@@ -9531,15 +9551,15 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" s="107"/>
-      <c r="B95" s="110"/>
+      <c r="A95" s="119"/>
+      <c r="B95" s="122"/>
       <c r="C95" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G95" s="125"/>
+      <c r="G95" s="108"/>
       <c r="H95" s="86" t="s">
         <v>238</v>
       </c>
@@ -9594,15 +9614,15 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" s="107"/>
-      <c r="B96" s="110"/>
+      <c r="A96" s="119"/>
+      <c r="B96" s="122"/>
       <c r="C96" s="55" t="s">
         <v>129</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="G96" s="125"/>
+      <c r="G96" s="108"/>
       <c r="H96" s="86" t="s">
         <v>239</v>
       </c>
@@ -9657,8 +9677,8 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" s="107"/>
-      <c r="B97" s="110"/>
+      <c r="A97" s="119"/>
+      <c r="B97" s="122"/>
       <c r="C97" s="55" t="s">
         <v>130</v>
       </c>
@@ -9717,8 +9737,8 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A98" s="107"/>
-      <c r="B98" s="112"/>
+      <c r="A98" s="119"/>
+      <c r="B98" s="123"/>
       <c r="C98" s="55" t="s">
         <v>131</v>
       </c>
@@ -9778,8 +9798,8 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A99" s="107"/>
-      <c r="B99" s="110">
+      <c r="A99" s="119"/>
+      <c r="B99" s="122">
         <v>2</v>
       </c>
       <c r="C99" s="34" t="s">
@@ -9842,8 +9862,8 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A100" s="107"/>
-      <c r="B100" s="110"/>
+      <c r="A100" s="119"/>
+      <c r="B100" s="122"/>
       <c r="C100" s="34" t="s">
         <v>132</v>
       </c>
@@ -9902,8 +9922,8 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A101" s="107"/>
-      <c r="B101" s="110"/>
+      <c r="A101" s="119"/>
+      <c r="B101" s="122"/>
       <c r="C101" s="34" t="s">
         <v>118</v>
       </c>
@@ -9962,8 +9982,8 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A102" s="107"/>
-      <c r="B102" s="110"/>
+      <c r="A102" s="119"/>
+      <c r="B102" s="122"/>
       <c r="C102" s="34" t="s">
         <v>119</v>
       </c>
@@ -10022,8 +10042,8 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A103" s="107"/>
-      <c r="B103" s="110"/>
+      <c r="A103" s="119"/>
+      <c r="B103" s="122"/>
       <c r="C103" s="34" t="s">
         <v>120</v>
       </c>
@@ -10082,8 +10102,8 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A104" s="107"/>
-      <c r="B104" s="110"/>
+      <c r="A104" s="119"/>
+      <c r="B104" s="122"/>
       <c r="C104" s="34" t="s">
         <v>121</v>
       </c>
@@ -10142,8 +10162,8 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A105" s="107"/>
-      <c r="B105" s="110"/>
+      <c r="A105" s="119"/>
+      <c r="B105" s="122"/>
       <c r="C105" s="34" t="s">
         <v>122</v>
       </c>
@@ -10202,8 +10222,8 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A106" s="107"/>
-      <c r="B106" s="110"/>
+      <c r="A106" s="119"/>
+      <c r="B106" s="122"/>
       <c r="C106" s="34" t="s">
         <v>123</v>
       </c>
@@ -10262,8 +10282,8 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A107" s="107"/>
-      <c r="B107" s="110"/>
+      <c r="A107" s="119"/>
+      <c r="B107" s="122"/>
       <c r="C107" s="34" t="s">
         <v>124</v>
       </c>
@@ -10322,8 +10342,8 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A108" s="107"/>
-      <c r="B108" s="110"/>
+      <c r="A108" s="119"/>
+      <c r="B108" s="122"/>
       <c r="C108" s="34" t="s">
         <v>125</v>
       </c>
@@ -10382,8 +10402,8 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A109" s="107"/>
-      <c r="B109" s="110"/>
+      <c r="A109" s="119"/>
+      <c r="B109" s="122"/>
       <c r="C109" s="34" t="s">
         <v>126</v>
       </c>
@@ -10442,8 +10462,8 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A110" s="107"/>
-      <c r="B110" s="110"/>
+      <c r="A110" s="119"/>
+      <c r="B110" s="122"/>
       <c r="C110" s="34" t="s">
         <v>127</v>
       </c>
@@ -10502,8 +10522,8 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A111" s="107"/>
-      <c r="B111" s="110"/>
+      <c r="A111" s="119"/>
+      <c r="B111" s="122"/>
       <c r="C111" s="34" t="s">
         <v>128</v>
       </c>
@@ -10562,8 +10582,8 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A112" s="107"/>
-      <c r="B112" s="110"/>
+      <c r="A112" s="119"/>
+      <c r="B112" s="122"/>
       <c r="C112" s="34" t="s">
         <v>129</v>
       </c>
@@ -10622,8 +10642,8 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A113" s="107"/>
-      <c r="B113" s="110"/>
+      <c r="A113" s="119"/>
+      <c r="B113" s="122"/>
       <c r="C113" s="34" t="s">
         <v>130</v>
       </c>
@@ -10682,8 +10702,8 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A114" s="107"/>
-      <c r="B114" s="110"/>
+      <c r="A114" s="119"/>
+      <c r="B114" s="122"/>
       <c r="C114" s="34" t="s">
         <v>131</v>
       </c>
@@ -10745,8 +10765,8 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A115" s="107"/>
-      <c r="B115" s="109">
+      <c r="A115" s="119"/>
+      <c r="B115" s="125">
         <v>3</v>
       </c>
       <c r="C115" s="22" t="s">
@@ -10807,8 +10827,8 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A116" s="107"/>
-      <c r="B116" s="110"/>
+      <c r="A116" s="119"/>
+      <c r="B116" s="122"/>
       <c r="C116" s="22" t="s">
         <v>132</v>
       </c>
@@ -10867,8 +10887,8 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A117" s="107"/>
-      <c r="B117" s="110"/>
+      <c r="A117" s="119"/>
+      <c r="B117" s="122"/>
       <c r="C117" s="22" t="s">
         <v>118</v>
       </c>
@@ -10927,8 +10947,8 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A118" s="107"/>
-      <c r="B118" s="110"/>
+      <c r="A118" s="119"/>
+      <c r="B118" s="122"/>
       <c r="C118" s="22" t="s">
         <v>119</v>
       </c>
@@ -10987,8 +11007,8 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A119" s="107"/>
-      <c r="B119" s="110"/>
+      <c r="A119" s="119"/>
+      <c r="B119" s="122"/>
       <c r="C119" s="22" t="s">
         <v>120</v>
       </c>
@@ -11044,8 +11064,8 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A120" s="107"/>
-      <c r="B120" s="110"/>
+      <c r="A120" s="119"/>
+      <c r="B120" s="122"/>
       <c r="C120" s="22" t="s">
         <v>121</v>
       </c>
@@ -11101,8 +11121,8 @@
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A121" s="107"/>
-      <c r="B121" s="110"/>
+      <c r="A121" s="119"/>
+      <c r="B121" s="122"/>
       <c r="C121" s="22" t="s">
         <v>122</v>
       </c>
@@ -11158,8 +11178,8 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A122" s="107"/>
-      <c r="B122" s="110"/>
+      <c r="A122" s="119"/>
+      <c r="B122" s="122"/>
       <c r="C122" s="22" t="s">
         <v>123</v>
       </c>
@@ -11215,8 +11235,8 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A123" s="107"/>
-      <c r="B123" s="110"/>
+      <c r="A123" s="119"/>
+      <c r="B123" s="122"/>
       <c r="C123" s="22" t="s">
         <v>124</v>
       </c>
@@ -11272,8 +11292,8 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A124" s="107"/>
-      <c r="B124" s="110"/>
+      <c r="A124" s="119"/>
+      <c r="B124" s="122"/>
       <c r="C124" s="22" t="s">
         <v>125</v>
       </c>
@@ -11329,8 +11349,8 @@
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A125" s="107"/>
-      <c r="B125" s="110"/>
+      <c r="A125" s="119"/>
+      <c r="B125" s="122"/>
       <c r="C125" s="22" t="s">
         <v>126</v>
       </c>
@@ -11389,8 +11409,8 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A126" s="107"/>
-      <c r="B126" s="110"/>
+      <c r="A126" s="119"/>
+      <c r="B126" s="122"/>
       <c r="C126" s="22" t="s">
         <v>127</v>
       </c>
@@ -11449,8 +11469,8 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A127" s="107"/>
-      <c r="B127" s="110"/>
+      <c r="A127" s="119"/>
+      <c r="B127" s="122"/>
       <c r="C127" s="22" t="s">
         <v>128</v>
       </c>
@@ -11509,8 +11529,8 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A128" s="107"/>
-      <c r="B128" s="110"/>
+      <c r="A128" s="119"/>
+      <c r="B128" s="122"/>
       <c r="C128" s="22" t="s">
         <v>129</v>
       </c>
@@ -11569,8 +11589,8 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A129" s="107"/>
-      <c r="B129" s="110"/>
+      <c r="A129" s="119"/>
+      <c r="B129" s="122"/>
       <c r="C129" s="22" t="s">
         <v>130</v>
       </c>
@@ -11626,8 +11646,8 @@
       </c>
     </row>
     <row r="130" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="119"/>
-      <c r="B130" s="112"/>
+      <c r="A130" s="120"/>
+      <c r="B130" s="123"/>
       <c r="C130" s="59" t="s">
         <v>133</v>
       </c>
@@ -11683,10 +11703,10 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A131" s="122" t="s">
+      <c r="A131" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="123">
+      <c r="B131" s="121">
         <v>1</v>
       </c>
       <c r="C131" s="52" t="s">
@@ -11697,7 +11717,7 @@
       </c>
       <c r="E131" s="45"/>
       <c r="F131" s="46"/>
-      <c r="G131" s="120" t="s">
+      <c r="G131" s="107" t="s">
         <v>136</v>
       </c>
       <c r="H131" s="85"/>
@@ -11752,15 +11772,15 @@
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A132" s="107"/>
-      <c r="B132" s="110"/>
+      <c r="A132" s="119"/>
+      <c r="B132" s="122"/>
       <c r="C132" s="55" t="s">
         <v>137</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G132" s="125"/>
+      <c r="G132" s="108"/>
       <c r="I132" s="86" t="str">
         <f t="shared" ref="I132:I153" si="28">IF(O132="",P132,O132)</f>
         <v/>
@@ -11812,15 +11832,15 @@
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A133" s="107"/>
-      <c r="B133" s="110"/>
+      <c r="A133" s="119"/>
+      <c r="B133" s="122"/>
       <c r="C133" s="55" t="s">
         <v>138</v>
       </c>
       <c r="D133" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G133" s="125"/>
+      <c r="G133" s="108"/>
       <c r="I133" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11872,15 +11892,15 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A134" s="107"/>
-      <c r="B134" s="110"/>
+      <c r="A134" s="119"/>
+      <c r="B134" s="122"/>
       <c r="C134" s="55" t="s">
         <v>139</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G134" s="125"/>
+      <c r="G134" s="108"/>
       <c r="I134" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11932,15 +11952,15 @@
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A135" s="107"/>
-      <c r="B135" s="110"/>
+      <c r="A135" s="119"/>
+      <c r="B135" s="122"/>
       <c r="C135" s="55" t="s">
         <v>140</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="G135" s="125"/>
+      <c r="G135" s="108"/>
       <c r="I135" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11992,15 +12012,15 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A136" s="107"/>
-      <c r="B136" s="110"/>
+      <c r="A136" s="119"/>
+      <c r="B136" s="122"/>
       <c r="C136" s="55" t="s">
         <v>141</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G136" s="125"/>
+      <c r="G136" s="108"/>
       <c r="I136" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12052,15 +12072,15 @@
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A137" s="107"/>
-      <c r="B137" s="110"/>
+      <c r="A137" s="119"/>
+      <c r="B137" s="122"/>
       <c r="C137" s="55" t="s">
         <v>142</v>
       </c>
       <c r="D137" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G137" s="125"/>
+      <c r="G137" s="108"/>
       <c r="I137" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12112,15 +12132,15 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A138" s="107"/>
-      <c r="B138" s="110"/>
+      <c r="A138" s="119"/>
+      <c r="B138" s="122"/>
       <c r="C138" s="55" t="s">
         <v>143</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G138" s="125"/>
+      <c r="G138" s="108"/>
       <c r="I138" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12172,15 +12192,15 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A139" s="107"/>
-      <c r="B139" s="110"/>
+      <c r="A139" s="119"/>
+      <c r="B139" s="122"/>
       <c r="C139" s="55" t="s">
         <v>178</v>
       </c>
       <c r="D139" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="G139" s="125"/>
+      <c r="G139" s="108"/>
       <c r="I139" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12232,15 +12252,15 @@
       </c>
     </row>
     <row r="140" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="119"/>
-      <c r="B140" s="112"/>
+      <c r="A140" s="120"/>
+      <c r="B140" s="123"/>
       <c r="C140" s="56" t="s">
         <v>144</v>
       </c>
       <c r="D140" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G140" s="126"/>
+      <c r="G140" s="124"/>
       <c r="I140" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12292,10 +12312,10 @@
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A141" s="122" t="s">
+      <c r="A141" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="123" t="s">
+      <c r="B141" s="121" t="s">
         <v>146</v>
       </c>
       <c r="C141" s="52" t="s">
@@ -12306,7 +12326,7 @@
       </c>
       <c r="E141" s="45"/>
       <c r="F141" s="46"/>
-      <c r="G141" s="120" t="s">
+      <c r="G141" s="107" t="s">
         <v>148</v>
       </c>
       <c r="H141" s="85"/>
@@ -12361,15 +12381,15 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A142" s="107"/>
-      <c r="B142" s="110"/>
+      <c r="A142" s="119"/>
+      <c r="B142" s="122"/>
       <c r="C142" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G142" s="125"/>
+      <c r="G142" s="108"/>
       <c r="I142" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12421,8 +12441,8 @@
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A143" s="107"/>
-      <c r="B143" s="110"/>
+      <c r="A143" s="119"/>
+      <c r="B143" s="122"/>
       <c r="C143" s="55" t="s">
         <v>199</v>
       </c>
@@ -12430,7 +12450,7 @@
         <v>200</v>
       </c>
       <c r="E143" s="26"/>
-      <c r="G143" s="125"/>
+      <c r="G143" s="108"/>
       <c r="I143" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12482,8 +12502,8 @@
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A144" s="107"/>
-      <c r="B144" s="110"/>
+      <c r="A144" s="119"/>
+      <c r="B144" s="122"/>
       <c r="C144" s="55" t="s">
         <v>201</v>
       </c>
@@ -12492,7 +12512,7 @@
       </c>
       <c r="E144" s="31"/>
       <c r="F144" s="32"/>
-      <c r="G144" s="121"/>
+      <c r="G144" s="106"/>
       <c r="H144" s="89"/>
       <c r="I144" s="89" t="str">
         <f t="shared" si="28"/>
@@ -12545,8 +12565,8 @@
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A145" s="107"/>
-      <c r="B145" s="109" t="s">
+      <c r="A145" s="119"/>
+      <c r="B145" s="125" t="s">
         <v>150</v>
       </c>
       <c r="C145" s="54" t="s">
@@ -12555,7 +12575,7 @@
       <c r="D145" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G145" s="124" t="s">
+      <c r="G145" s="105" t="s">
         <v>151</v>
       </c>
       <c r="I145" s="86" t="str">
@@ -12609,15 +12629,15 @@
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A146" s="107"/>
-      <c r="B146" s="110"/>
+      <c r="A146" s="119"/>
+      <c r="B146" s="122"/>
       <c r="C146" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D146" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G146" s="125"/>
+      <c r="G146" s="108"/>
       <c r="I146" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12669,8 +12689,8 @@
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A147" s="119"/>
-      <c r="B147" s="112"/>
+      <c r="A147" s="120"/>
+      <c r="B147" s="123"/>
       <c r="C147" s="56" t="s">
         <v>199</v>
       </c>
@@ -12678,7 +12698,7 @@
         <v>202</v>
       </c>
       <c r="E147" s="26"/>
-      <c r="G147" s="125"/>
+      <c r="G147" s="108"/>
       <c r="I147" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12730,15 +12750,15 @@
       </c>
     </row>
     <row r="148" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="119"/>
-      <c r="B148" s="112"/>
+      <c r="A148" s="120"/>
+      <c r="B148" s="123"/>
       <c r="C148" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D148" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G148" s="126"/>
+      <c r="G148" s="124"/>
       <c r="I148" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12790,10 +12810,10 @@
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A149" s="129" t="s">
+      <c r="A149" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="132" t="s">
+      <c r="B149" s="112" t="s">
         <v>153</v>
       </c>
       <c r="C149" s="60" t="s">
@@ -12804,7 +12824,7 @@
       </c>
       <c r="E149" s="45"/>
       <c r="F149" s="46"/>
-      <c r="G149" s="120" t="s">
+      <c r="G149" s="107" t="s">
         <v>155</v>
       </c>
       <c r="H149" s="85"/>
@@ -12859,15 +12879,15 @@
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A150" s="130"/>
-      <c r="B150" s="133"/>
+      <c r="A150" s="110"/>
+      <c r="B150" s="113"/>
       <c r="C150" s="61" t="s">
         <v>156</v>
       </c>
       <c r="D150" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="G150" s="125"/>
+      <c r="G150" s="108"/>
       <c r="I150" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12919,15 +12939,15 @@
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A151" s="130"/>
-      <c r="B151" s="133"/>
+      <c r="A151" s="110"/>
+      <c r="B151" s="113"/>
       <c r="C151" s="61" t="s">
         <v>157</v>
       </c>
       <c r="D151" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G151" s="125"/>
+      <c r="G151" s="108"/>
       <c r="I151" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12979,15 +12999,15 @@
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A152" s="130"/>
-      <c r="B152" s="133"/>
+      <c r="A152" s="110"/>
+      <c r="B152" s="113"/>
       <c r="C152" s="61" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="G152" s="125"/>
+      <c r="G152" s="108"/>
       <c r="I152" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -13039,8 +13059,8 @@
       </c>
     </row>
     <row r="153" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="131"/>
-      <c r="B153" s="134"/>
+      <c r="A153" s="111"/>
+      <c r="B153" s="114"/>
       <c r="C153" s="62" t="s">
         <v>159</v>
       </c>
@@ -13049,7 +13069,7 @@
       </c>
       <c r="E153" s="64"/>
       <c r="F153" s="65"/>
-      <c r="G153" s="135"/>
+      <c r="G153" s="115"/>
       <c r="H153" s="87"/>
       <c r="I153" s="87" t="str">
         <f t="shared" si="28"/>
@@ -13104,61 +13124,6 @@
     <row r="154" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="G149:G153"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A131:A140"/>
-    <mergeCell ref="B131:B140"/>
-    <mergeCell ref="G131:G140"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A83:A130"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="B99:B114"/>
-    <mergeCell ref="B115:B130"/>
-    <mergeCell ref="A41:A82"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B3"/>
@@ -13175,6 +13140,61 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A83:A130"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="B99:B114"/>
+    <mergeCell ref="B115:B130"/>
+    <mergeCell ref="A41:A82"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="G149:G153"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="G131:G140"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G48:G51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13500,7 +13520,7 @@
       </c>
       <c r="D13" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;D$2&amp;$B13,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>UART3_TX</v>
       </c>
       <c r="E13" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B13,使用ポート!$H:$H,0)),"")</f>
@@ -13527,7 +13547,7 @@
       </c>
       <c r="D14" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;D$2&amp;$B14,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>UART3_RX</v>
       </c>
       <c r="E14" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B14,使用ポート!$H:$H,0)),"")</f>

--- a/Parent_Turtle_ver.servo_main_ver.3/Parent_Turtle_no1_video.xlsx
+++ b/Parent_Turtle_ver.servo_main_ver.3/Parent_Turtle_no1_video.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ピン配置" sheetId="1" r:id="rId1"/>
@@ -2622,18 +2622,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2659,66 +2719,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3553,7 +3553,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3578,18 +3578,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="19" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="133"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
       <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3602,11 +3602,11 @@
       <c r="J1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="136" t="s">
+      <c r="K1" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="133"/>
-      <c r="M1" s="137"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="116"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21" t="s">
         <v>26</v>
@@ -3620,10 +3620,10 @@
       <c r="R1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="133" t="s">
+      <c r="S1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="133"/>
+      <c r="T1" s="105"/>
       <c r="U1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3632,10 +3632,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="125">
+      <c r="B2" s="109">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -3647,7 +3647,7 @@
       <c r="E2" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="111" t="s">
         <v>216</v>
       </c>
       <c r="H2" s="86" t="s">
@@ -3704,8 +3704,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="119"/>
-      <c r="B3" s="122"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="110"/>
       <c r="C3" s="29" t="s">
         <v>35</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="32"/>
-      <c r="G3" s="132"/>
+      <c r="G3" s="111"/>
       <c r="H3" s="86" t="s">
         <v>212</v>
       </c>
@@ -3771,8 +3771,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="119"/>
-      <c r="B4" s="125">
+      <c r="A4" s="107"/>
+      <c r="B4" s="109">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -3784,7 +3784,7 @@
       <c r="E4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="123" t="s">
+      <c r="G4" s="112" t="s">
         <v>217</v>
       </c>
       <c r="H4" s="88" t="s">
@@ -3841,8 +3841,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="119"/>
-      <c r="B5" s="123"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="E5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="125"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="89" t="s">
         <v>214</v>
       </c>
@@ -3907,8 +3907,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="119"/>
-      <c r="B6" s="122">
+      <c r="A6" s="107"/>
+      <c r="B6" s="110">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -3923,7 +3923,7 @@
       <c r="F6" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="132" t="s">
+      <c r="G6" s="111" t="s">
         <v>240</v>
       </c>
       <c r="H6" s="86" t="s">
@@ -3980,8 +3980,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="119"/>
-      <c r="B7" s="122"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="110"/>
       <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="F7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="132"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="86" t="s">
         <v>242</v>
       </c>
@@ -4049,8 +4049,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="119"/>
-      <c r="B8" s="125">
+      <c r="A8" s="107"/>
+      <c r="B8" s="109">
         <v>4</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -4062,7 +4062,7 @@
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="123"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="88"/>
       <c r="I8" s="88" t="str">
         <f>IF(O8="",P8,O8)</f>
@@ -4115,8 +4115,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="119"/>
-      <c r="B9" s="123"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="34" t="s">
         <v>35</v>
       </c>
@@ -4126,7 +4126,7 @@
       <c r="E9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="125"/>
+      <c r="G9" s="109"/>
       <c r="H9" s="89"/>
       <c r="I9" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4179,8 +4179,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="119"/>
-      <c r="B10" s="122">
+      <c r="A10" s="107"/>
+      <c r="B10" s="110">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="132"/>
+      <c r="G10" s="111"/>
       <c r="I10" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4243,8 +4243,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="119"/>
-      <c r="B11" s="122"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="132"/>
+      <c r="G11" s="111"/>
       <c r="I11" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4305,8 +4305,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="119"/>
-      <c r="B12" s="125">
+      <c r="A12" s="107"/>
+      <c r="B12" s="109">
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -4315,7 +4315,7 @@
       <c r="D12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="123"/>
+      <c r="G12" s="112"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4368,15 +4368,15 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="119"/>
-      <c r="B13" s="123"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="125"/>
+      <c r="G13" s="109"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4429,8 +4429,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="119"/>
-      <c r="B14" s="122">
+      <c r="A14" s="107"/>
+      <c r="B14" s="110">
         <v>7</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -4439,7 +4439,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="132"/>
+      <c r="G14" s="111"/>
       <c r="I14" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4491,15 +4491,15 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="119"/>
-      <c r="B15" s="122"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="110"/>
       <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="132"/>
+      <c r="G15" s="111"/>
       <c r="I15" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4551,14 +4551,14 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="119"/>
-      <c r="B16" s="125">
+      <c r="A16" s="107"/>
+      <c r="B16" s="109">
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="123"/>
+      <c r="G16" s="112"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4611,15 +4611,15 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="129"/>
-      <c r="B17" s="130"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="131"/>
+      <c r="G17" s="118"/>
       <c r="H17" s="90"/>
       <c r="I17" s="90" t="str">
         <f t="shared" si="6"/>
@@ -4672,10 +4672,10 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="125">
+      <c r="B18" s="109">
         <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -4687,7 +4687,7 @@
       <c r="E18" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="107"/>
+      <c r="G18" s="120"/>
       <c r="I18" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4739,8 +4739,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="119"/>
-      <c r="B19" s="123"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="29" t="s">
         <v>35</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="E19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="106"/>
+      <c r="G19" s="121"/>
       <c r="I19" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4802,8 +4802,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="119"/>
-      <c r="B20" s="122">
+      <c r="A20" s="107"/>
+      <c r="B20" s="110">
         <v>2</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -4816,7 +4816,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="38"/>
-      <c r="G20" s="123" t="s">
+      <c r="G20" s="112" t="s">
         <v>215</v>
       </c>
       <c r="H20" s="88" t="s">
@@ -4873,8 +4873,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="120"/>
-      <c r="B21" s="130"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="39" t="s">
         <v>62</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>64</v>
       </c>
       <c r="F21" s="42"/>
-      <c r="G21" s="131"/>
+      <c r="G21" s="118"/>
       <c r="H21" s="90" t="s">
         <v>210</v>
       </c>
@@ -4940,10 +4940,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="121">
+      <c r="B22" s="123">
         <v>1</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -4956,7 +4956,7 @@
         <v>67</v>
       </c>
       <c r="F22" s="46"/>
-      <c r="G22" s="107"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="86" t="s">
         <v>233</v>
       </c>
@@ -5011,8 +5011,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="119"/>
-      <c r="B23" s="123"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="34" t="s">
         <v>68</v>
       </c>
@@ -5022,7 +5022,7 @@
       <c r="E23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="106"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="86" t="s">
         <v>234</v>
       </c>
@@ -5077,8 +5077,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="119"/>
-      <c r="B24" s="122">
+      <c r="A24" s="107"/>
+      <c r="B24" s="110">
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="123"/>
+      <c r="G24" s="112"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5142,8 +5142,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="119"/>
-      <c r="B25" s="122"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="34" t="s">
         <v>70</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="125"/>
+      <c r="G25" s="109"/>
       <c r="H25" s="89"/>
       <c r="I25" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5205,8 +5205,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="119"/>
-      <c r="B26" s="125">
+      <c r="A26" s="107"/>
+      <c r="B26" s="109">
         <v>3</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="105"/>
+      <c r="G26" s="124"/>
       <c r="I26" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5269,8 +5269,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="119"/>
-      <c r="B27" s="122"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="110"/>
       <c r="C27" s="34" t="s">
         <v>70</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>78</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="106"/>
+      <c r="G27" s="121"/>
       <c r="I27" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5333,14 +5333,14 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" s="119"/>
-      <c r="B28" s="122">
+      <c r="A28" s="107"/>
+      <c r="B28" s="110">
         <v>4</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="123"/>
+      <c r="G28" s="112"/>
       <c r="H28" s="88"/>
       <c r="I28" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5393,15 +5393,15 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="129"/>
-      <c r="B29" s="130"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="131"/>
+      <c r="G29" s="118"/>
       <c r="H29" s="90"/>
       <c r="I29" s="90" t="str">
         <f t="shared" si="6"/>
@@ -5454,7 +5454,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="106" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -5516,8 +5516,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="119"/>
-      <c r="B31" s="122" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="110" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -5526,7 +5526,7 @@
       <c r="D31" s="36"/>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="105"/>
+      <c r="G31" s="124"/>
       <c r="H31" s="88"/>
       <c r="I31" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5579,14 +5579,14 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="119"/>
-      <c r="B32" s="122"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="110"/>
       <c r="C32" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="50"/>
-      <c r="G32" s="108"/>
+      <c r="G32" s="125"/>
       <c r="I32" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5638,14 +5638,14 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A33" s="119"/>
-      <c r="B33" s="122"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="110"/>
       <c r="C33" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="50"/>
-      <c r="G33" s="108"/>
+      <c r="G33" s="125"/>
       <c r="I33" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5697,14 +5697,14 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A34" s="119"/>
-      <c r="B34" s="122"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="50"/>
-      <c r="G34" s="108"/>
+      <c r="G34" s="125"/>
       <c r="I34" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5756,15 +5756,15 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A35" s="119"/>
-      <c r="B35" s="122"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="106"/>
+      <c r="G35" s="121"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5817,15 +5817,15 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="119"/>
-      <c r="B36" s="125" t="s">
+      <c r="A36" s="107"/>
+      <c r="B36" s="109" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="48"/>
-      <c r="G36" s="105"/>
+      <c r="G36" s="124"/>
       <c r="I36" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5877,14 +5877,14 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="119"/>
-      <c r="B37" s="122"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="34" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="50"/>
-      <c r="G37" s="108"/>
+      <c r="G37" s="125"/>
       <c r="I37" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5936,14 +5936,14 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="119"/>
-      <c r="B38" s="122"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="110"/>
       <c r="C38" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="50"/>
-      <c r="G38" s="108"/>
+      <c r="G38" s="125"/>
       <c r="I38" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5995,14 +5995,14 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="119"/>
-      <c r="B39" s="122"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="110"/>
       <c r="C39" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="50"/>
-      <c r="G39" s="108"/>
+      <c r="G39" s="125"/>
       <c r="I39" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6054,12 +6054,12 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="120"/>
-      <c r="B40" s="123"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="124"/>
+      <c r="G40" s="126"/>
       <c r="I40" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6111,10 +6111,10 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="126" t="s">
+      <c r="A41" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="121">
+      <c r="B41" s="123">
         <v>1</v>
       </c>
       <c r="C41" s="52" t="s">
@@ -6127,7 +6127,7 @@
       <c r="F41" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="107" t="s">
+      <c r="G41" s="120" t="s">
         <v>208</v>
       </c>
       <c r="H41" s="85" t="s">
@@ -6184,8 +6184,8 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42" s="127"/>
-      <c r="B42" s="125"/>
+      <c r="A42" s="128"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="54" t="s">
         <v>91</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="F42" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="108"/>
+      <c r="G42" s="125"/>
       <c r="I42" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6250,8 +6250,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="127"/>
-      <c r="B43" s="122"/>
+      <c r="A43" s="128"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="55" t="s">
         <v>93</v>
       </c>
@@ -6262,7 +6262,7 @@
       <c r="F43" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="108"/>
+      <c r="G43" s="125"/>
       <c r="H43" s="86" t="s">
         <v>219</v>
       </c>
@@ -6317,8 +6317,8 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="127"/>
-      <c r="B44" s="122"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="110"/>
       <c r="C44" s="55" t="s">
         <v>95</v>
       </c>
@@ -6331,7 +6331,7 @@
       <c r="F44" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="108"/>
+      <c r="G44" s="125"/>
       <c r="I44" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6383,8 +6383,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45" s="127"/>
-      <c r="B45" s="122"/>
+      <c r="A45" s="128"/>
+      <c r="B45" s="110"/>
       <c r="C45" s="55" t="s">
         <v>98</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="F45" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="108"/>
+      <c r="G45" s="125"/>
       <c r="H45" s="86" t="s">
         <v>220</v>
       </c>
@@ -6450,8 +6450,8 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A46" s="127"/>
-      <c r="B46" s="122"/>
+      <c r="A46" s="128"/>
+      <c r="B46" s="110"/>
       <c r="C46" s="55" t="s">
         <v>100</v>
       </c>
@@ -6464,7 +6464,7 @@
       <c r="F46" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="108"/>
+      <c r="G46" s="125"/>
       <c r="I46" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6516,8 +6516,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A47" s="127"/>
-      <c r="B47" s="122"/>
+      <c r="A47" s="128"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="55" t="s">
         <v>104</v>
       </c>
@@ -6528,7 +6528,7 @@
       <c r="F47" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="106"/>
+      <c r="G47" s="121"/>
       <c r="H47" s="89" t="s">
         <v>221</v>
       </c>
@@ -6583,8 +6583,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48" s="127"/>
-      <c r="B48" s="125">
+      <c r="A48" s="128"/>
+      <c r="B48" s="109">
         <v>2</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -6599,7 +6599,7 @@
       <c r="F48" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="105" t="s">
+      <c r="G48" s="124" t="s">
         <v>230</v>
       </c>
       <c r="H48" s="86" t="s">
@@ -6656,8 +6656,8 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A49" s="127"/>
-      <c r="B49" s="122"/>
+      <c r="A49" s="128"/>
+      <c r="B49" s="110"/>
       <c r="C49" s="55" t="s">
         <v>93</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="E49" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="108"/>
+      <c r="G49" s="125"/>
       <c r="H49" s="86" t="s">
         <v>223</v>
       </c>
@@ -6722,8 +6722,8 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A50" s="127"/>
-      <c r="B50" s="122"/>
+      <c r="A50" s="128"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="55" t="s">
         <v>98</v>
       </c>
@@ -6733,7 +6733,7 @@
       <c r="E50" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="108"/>
+      <c r="G50" s="125"/>
       <c r="H50" s="86" t="s">
         <v>224</v>
       </c>
@@ -6788,8 +6788,8 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A51" s="127"/>
-      <c r="B51" s="123"/>
+      <c r="A51" s="128"/>
+      <c r="B51" s="112"/>
       <c r="C51" s="56" t="s">
         <v>104</v>
       </c>
@@ -6799,7 +6799,7 @@
       <c r="E51" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="106"/>
+      <c r="G51" s="121"/>
       <c r="H51" s="89" t="s">
         <v>225</v>
       </c>
@@ -6854,8 +6854,8 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52" s="127"/>
-      <c r="B52" s="122">
+      <c r="A52" s="128"/>
+      <c r="B52" s="110">
         <v>3</v>
       </c>
       <c r="C52" s="55" t="s">
@@ -6870,7 +6870,7 @@
       <c r="F52" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="105" t="s">
+      <c r="G52" s="124" t="s">
         <v>208</v>
       </c>
       <c r="H52" s="86" t="s">
@@ -6927,8 +6927,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A53" s="127"/>
-      <c r="B53" s="122"/>
+      <c r="A53" s="128"/>
+      <c r="B53" s="110"/>
       <c r="C53" s="55" t="s">
         <v>93</v>
       </c>
@@ -6941,7 +6941,7 @@
       <c r="F53" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="108"/>
+      <c r="G53" s="125"/>
       <c r="H53" s="86" t="s">
         <v>227</v>
       </c>
@@ -6996,8 +6996,8 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A54" s="127"/>
-      <c r="B54" s="122"/>
+      <c r="A54" s="128"/>
+      <c r="B54" s="110"/>
       <c r="C54" s="55" t="s">
         <v>98</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="F54" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="108"/>
+      <c r="G54" s="125"/>
       <c r="H54" s="86" t="s">
         <v>228</v>
       </c>
@@ -7063,8 +7063,8 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A55" s="127"/>
-      <c r="B55" s="122"/>
+      <c r="A55" s="128"/>
+      <c r="B55" s="110"/>
       <c r="C55" s="55" t="s">
         <v>104</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="F55" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="106"/>
+      <c r="G55" s="121"/>
       <c r="H55" s="89" t="s">
         <v>229</v>
       </c>
@@ -7130,8 +7130,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A56" s="127"/>
-      <c r="B56" s="125">
+      <c r="A56" s="128"/>
+      <c r="B56" s="109">
         <v>4</v>
       </c>
       <c r="C56" s="54" t="s">
@@ -7195,8 +7195,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A57" s="127"/>
-      <c r="B57" s="122"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="110"/>
       <c r="C57" s="55" t="s">
         <v>93</v>
       </c>
@@ -7258,8 +7258,8 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A58" s="127"/>
-      <c r="B58" s="122"/>
+      <c r="A58" s="128"/>
+      <c r="B58" s="110"/>
       <c r="C58" s="55" t="s">
         <v>98</v>
       </c>
@@ -7321,8 +7321,8 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A59" s="127"/>
-      <c r="B59" s="123"/>
+      <c r="A59" s="128"/>
+      <c r="B59" s="112"/>
       <c r="C59" s="56" t="s">
         <v>104</v>
       </c>
@@ -7389,8 +7389,8 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A60" s="127"/>
-      <c r="B60" s="122">
+      <c r="A60" s="128"/>
+      <c r="B60" s="110">
         <v>5</v>
       </c>
       <c r="C60" s="55" t="s">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
-      <c r="G60" s="105"/>
+      <c r="G60" s="124"/>
       <c r="I60" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7453,15 +7453,15 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A61" s="127"/>
-      <c r="B61" s="122"/>
+      <c r="A61" s="128"/>
+      <c r="B61" s="110"/>
       <c r="C61" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="108"/>
+      <c r="G61" s="125"/>
       <c r="I61" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7513,15 +7513,15 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A62" s="127"/>
-      <c r="B62" s="122"/>
+      <c r="A62" s="128"/>
+      <c r="B62" s="110"/>
       <c r="C62" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="108"/>
+      <c r="G62" s="125"/>
       <c r="I62" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7573,8 +7573,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A63" s="127"/>
-      <c r="B63" s="122"/>
+      <c r="A63" s="128"/>
+      <c r="B63" s="110"/>
       <c r="C63" s="55" t="s">
         <v>104</v>
       </c>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="106"/>
+      <c r="G63" s="121"/>
       <c r="H63" s="89"/>
       <c r="I63" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7636,8 +7636,8 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A64" s="127"/>
-      <c r="B64" s="125">
+      <c r="A64" s="128"/>
+      <c r="B64" s="109">
         <v>6</v>
       </c>
       <c r="C64" s="54" t="s">
@@ -7695,8 +7695,8 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A65" s="127"/>
-      <c r="B65" s="122"/>
+      <c r="A65" s="128"/>
+      <c r="B65" s="110"/>
       <c r="C65" s="55" t="s">
         <v>93</v>
       </c>
@@ -7752,8 +7752,8 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A66" s="127"/>
-      <c r="B66" s="122"/>
+      <c r="A66" s="128"/>
+      <c r="B66" s="110"/>
       <c r="C66" s="55" t="s">
         <v>98</v>
       </c>
@@ -7809,8 +7809,8 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A67" s="127"/>
-      <c r="B67" s="123"/>
+      <c r="A67" s="128"/>
+      <c r="B67" s="112"/>
       <c r="C67" s="56" t="s">
         <v>104</v>
       </c>
@@ -7867,8 +7867,8 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A68" s="127"/>
-      <c r="B68" s="122">
+      <c r="A68" s="128"/>
+      <c r="B68" s="110">
         <v>8</v>
       </c>
       <c r="C68" s="55" t="s">
@@ -7931,8 +7931,8 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A69" s="127"/>
-      <c r="B69" s="125"/>
+      <c r="A69" s="128"/>
+      <c r="B69" s="109"/>
       <c r="C69" s="54" t="s">
         <v>91</v>
       </c>
@@ -7994,8 +7994,8 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A70" s="127"/>
-      <c r="B70" s="122"/>
+      <c r="A70" s="128"/>
+      <c r="B70" s="110"/>
       <c r="C70" s="55" t="s">
         <v>93</v>
       </c>
@@ -8054,8 +8054,8 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A71" s="127"/>
-      <c r="B71" s="122"/>
+      <c r="A71" s="128"/>
+      <c r="B71" s="110"/>
       <c r="C71" s="55" t="s">
         <v>95</v>
       </c>
@@ -8117,8 +8117,8 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A72" s="127"/>
-      <c r="B72" s="122"/>
+      <c r="A72" s="128"/>
+      <c r="B72" s="110"/>
       <c r="C72" s="55" t="s">
         <v>98</v>
       </c>
@@ -8177,8 +8177,8 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A73" s="127"/>
-      <c r="B73" s="122"/>
+      <c r="A73" s="128"/>
+      <c r="B73" s="110"/>
       <c r="C73" s="55" t="s">
         <v>100</v>
       </c>
@@ -8240,8 +8240,8 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A74" s="127"/>
-      <c r="B74" s="122"/>
+      <c r="A74" s="128"/>
+      <c r="B74" s="110"/>
       <c r="C74" s="55" t="s">
         <v>104</v>
       </c>
@@ -8303,8 +8303,8 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A75" s="127"/>
-      <c r="B75" s="123">
+      <c r="A75" s="128"/>
+      <c r="B75" s="112">
         <v>9</v>
       </c>
       <c r="C75" s="55" t="s">
@@ -8317,7 +8317,7 @@
         <v>113</v>
       </c>
       <c r="F75" s="38"/>
-      <c r="G75" s="105"/>
+      <c r="G75" s="124"/>
       <c r="I75" s="86" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8369,8 +8369,8 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A76" s="127"/>
-      <c r="B76" s="125"/>
+      <c r="A76" s="128"/>
+      <c r="B76" s="109"/>
       <c r="C76" s="55" t="s">
         <v>93</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>114</v>
       </c>
       <c r="F76" s="32"/>
-      <c r="G76" s="106"/>
+      <c r="G76" s="121"/>
       <c r="H76" s="89"/>
       <c r="I76" s="89" t="str">
         <f t="shared" si="17"/>
@@ -8434,7 +8434,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A77" s="127"/>
+      <c r="A77" s="128"/>
       <c r="B77" s="57">
         <v>10</v>
       </c>
@@ -8499,7 +8499,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A78" s="127"/>
+      <c r="A78" s="128"/>
       <c r="B78" s="37">
         <v>11</v>
       </c>
@@ -8562,8 +8562,8 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A79" s="127"/>
-      <c r="B79" s="116">
+      <c r="A79" s="128"/>
+      <c r="B79" s="136">
         <v>12</v>
       </c>
       <c r="C79" s="56" t="s">
@@ -8626,8 +8626,8 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A80" s="127"/>
-      <c r="B80" s="117"/>
+      <c r="A80" s="128"/>
+      <c r="B80" s="137"/>
       <c r="C80" s="56" t="s">
         <v>93</v>
       </c>
@@ -8689,7 +8689,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A81" s="127"/>
+      <c r="A81" s="128"/>
       <c r="B81" s="37">
         <v>13</v>
       </c>
@@ -8752,7 +8752,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="127"/>
+      <c r="A82" s="128"/>
       <c r="B82" s="37">
         <v>14</v>
       </c>
@@ -8816,10 +8816,10 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A83" s="118" t="s">
+      <c r="A83" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="121">
+      <c r="B83" s="123">
         <v>1</v>
       </c>
       <c r="C83" s="58" t="s">
@@ -8883,8 +8883,8 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A84" s="119"/>
-      <c r="B84" s="122"/>
+      <c r="A84" s="107"/>
+      <c r="B84" s="110"/>
       <c r="C84" s="55" t="s">
         <v>117</v>
       </c>
@@ -8943,8 +8943,8 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A85" s="119"/>
-      <c r="B85" s="122"/>
+      <c r="A85" s="107"/>
+      <c r="B85" s="110"/>
       <c r="C85" s="55" t="s">
         <v>118</v>
       </c>
@@ -9003,8 +9003,8 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A86" s="119"/>
-      <c r="B86" s="122"/>
+      <c r="A86" s="107"/>
+      <c r="B86" s="110"/>
       <c r="C86" s="55" t="s">
         <v>119</v>
       </c>
@@ -9063,8 +9063,8 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A87" s="119"/>
-      <c r="B87" s="122"/>
+      <c r="A87" s="107"/>
+      <c r="B87" s="110"/>
       <c r="C87" s="55" t="s">
         <v>120</v>
       </c>
@@ -9123,8 +9123,8 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A88" s="119"/>
-      <c r="B88" s="122"/>
+      <c r="A88" s="107"/>
+      <c r="B88" s="110"/>
       <c r="C88" s="55" t="s">
         <v>121</v>
       </c>
@@ -9183,8 +9183,8 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A89" s="119"/>
-      <c r="B89" s="122"/>
+      <c r="A89" s="107"/>
+      <c r="B89" s="110"/>
       <c r="C89" s="55" t="s">
         <v>122</v>
       </c>
@@ -9243,8 +9243,8 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A90" s="119"/>
-      <c r="B90" s="122"/>
+      <c r="A90" s="107"/>
+      <c r="B90" s="110"/>
       <c r="C90" s="55" t="s">
         <v>123</v>
       </c>
@@ -9303,8 +9303,8 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A91" s="119"/>
-      <c r="B91" s="122"/>
+      <c r="A91" s="107"/>
+      <c r="B91" s="110"/>
       <c r="C91" s="55" t="s">
         <v>124</v>
       </c>
@@ -9363,8 +9363,8 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A92" s="119"/>
-      <c r="B92" s="122"/>
+      <c r="A92" s="107"/>
+      <c r="B92" s="110"/>
       <c r="C92" s="55" t="s">
         <v>125</v>
       </c>
@@ -9423,15 +9423,15 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A93" s="119"/>
-      <c r="B93" s="122"/>
+      <c r="A93" s="107"/>
+      <c r="B93" s="110"/>
       <c r="C93" s="55" t="s">
         <v>126</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G93" s="108" t="s">
+      <c r="G93" s="125" t="s">
         <v>235</v>
       </c>
       <c r="H93" s="86" t="s">
@@ -9488,15 +9488,15 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" s="119"/>
-      <c r="B94" s="122"/>
+      <c r="A94" s="107"/>
+      <c r="B94" s="110"/>
       <c r="C94" s="55" t="s">
         <v>127</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G94" s="108"/>
+      <c r="G94" s="125"/>
       <c r="H94" s="86" t="s">
         <v>237</v>
       </c>
@@ -9551,15 +9551,15 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" s="119"/>
-      <c r="B95" s="122"/>
+      <c r="A95" s="107"/>
+      <c r="B95" s="110"/>
       <c r="C95" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G95" s="108"/>
+      <c r="G95" s="125"/>
       <c r="H95" s="86" t="s">
         <v>238</v>
       </c>
@@ -9614,15 +9614,15 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" s="119"/>
-      <c r="B96" s="122"/>
+      <c r="A96" s="107"/>
+      <c r="B96" s="110"/>
       <c r="C96" s="55" t="s">
         <v>129</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="G96" s="108"/>
+      <c r="G96" s="125"/>
       <c r="H96" s="86" t="s">
         <v>239</v>
       </c>
@@ -9677,8 +9677,8 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" s="119"/>
-      <c r="B97" s="122"/>
+      <c r="A97" s="107"/>
+      <c r="B97" s="110"/>
       <c r="C97" s="55" t="s">
         <v>130</v>
       </c>
@@ -9737,8 +9737,8 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A98" s="119"/>
-      <c r="B98" s="123"/>
+      <c r="A98" s="107"/>
+      <c r="B98" s="112"/>
       <c r="C98" s="55" t="s">
         <v>131</v>
       </c>
@@ -9798,8 +9798,8 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A99" s="119"/>
-      <c r="B99" s="122">
+      <c r="A99" s="107"/>
+      <c r="B99" s="110">
         <v>2</v>
       </c>
       <c r="C99" s="34" t="s">
@@ -9862,8 +9862,8 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A100" s="119"/>
-      <c r="B100" s="122"/>
+      <c r="A100" s="107"/>
+      <c r="B100" s="110"/>
       <c r="C100" s="34" t="s">
         <v>132</v>
       </c>
@@ -9922,8 +9922,8 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A101" s="119"/>
-      <c r="B101" s="122"/>
+      <c r="A101" s="107"/>
+      <c r="B101" s="110"/>
       <c r="C101" s="34" t="s">
         <v>118</v>
       </c>
@@ -9982,8 +9982,8 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A102" s="119"/>
-      <c r="B102" s="122"/>
+      <c r="A102" s="107"/>
+      <c r="B102" s="110"/>
       <c r="C102" s="34" t="s">
         <v>119</v>
       </c>
@@ -10042,8 +10042,8 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A103" s="119"/>
-      <c r="B103" s="122"/>
+      <c r="A103" s="107"/>
+      <c r="B103" s="110"/>
       <c r="C103" s="34" t="s">
         <v>120</v>
       </c>
@@ -10102,8 +10102,8 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A104" s="119"/>
-      <c r="B104" s="122"/>
+      <c r="A104" s="107"/>
+      <c r="B104" s="110"/>
       <c r="C104" s="34" t="s">
         <v>121</v>
       </c>
@@ -10162,8 +10162,8 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A105" s="119"/>
-      <c r="B105" s="122"/>
+      <c r="A105" s="107"/>
+      <c r="B105" s="110"/>
       <c r="C105" s="34" t="s">
         <v>122</v>
       </c>
@@ -10222,8 +10222,8 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A106" s="119"/>
-      <c r="B106" s="122"/>
+      <c r="A106" s="107"/>
+      <c r="B106" s="110"/>
       <c r="C106" s="34" t="s">
         <v>123</v>
       </c>
@@ -10282,8 +10282,8 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A107" s="119"/>
-      <c r="B107" s="122"/>
+      <c r="A107" s="107"/>
+      <c r="B107" s="110"/>
       <c r="C107" s="34" t="s">
         <v>124</v>
       </c>
@@ -10342,8 +10342,8 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A108" s="119"/>
-      <c r="B108" s="122"/>
+      <c r="A108" s="107"/>
+      <c r="B108" s="110"/>
       <c r="C108" s="34" t="s">
         <v>125</v>
       </c>
@@ -10402,8 +10402,8 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A109" s="119"/>
-      <c r="B109" s="122"/>
+      <c r="A109" s="107"/>
+      <c r="B109" s="110"/>
       <c r="C109" s="34" t="s">
         <v>126</v>
       </c>
@@ -10462,8 +10462,8 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A110" s="119"/>
-      <c r="B110" s="122"/>
+      <c r="A110" s="107"/>
+      <c r="B110" s="110"/>
       <c r="C110" s="34" t="s">
         <v>127</v>
       </c>
@@ -10522,8 +10522,8 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A111" s="119"/>
-      <c r="B111" s="122"/>
+      <c r="A111" s="107"/>
+      <c r="B111" s="110"/>
       <c r="C111" s="34" t="s">
         <v>128</v>
       </c>
@@ -10582,8 +10582,8 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A112" s="119"/>
-      <c r="B112" s="122"/>
+      <c r="A112" s="107"/>
+      <c r="B112" s="110"/>
       <c r="C112" s="34" t="s">
         <v>129</v>
       </c>
@@ -10642,8 +10642,8 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A113" s="119"/>
-      <c r="B113" s="122"/>
+      <c r="A113" s="107"/>
+      <c r="B113" s="110"/>
       <c r="C113" s="34" t="s">
         <v>130</v>
       </c>
@@ -10702,8 +10702,8 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A114" s="119"/>
-      <c r="B114" s="122"/>
+      <c r="A114" s="107"/>
+      <c r="B114" s="110"/>
       <c r="C114" s="34" t="s">
         <v>131</v>
       </c>
@@ -10765,8 +10765,8 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A115" s="119"/>
-      <c r="B115" s="125">
+      <c r="A115" s="107"/>
+      <c r="B115" s="109">
         <v>3</v>
       </c>
       <c r="C115" s="22" t="s">
@@ -10827,8 +10827,8 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A116" s="119"/>
-      <c r="B116" s="122"/>
+      <c r="A116" s="107"/>
+      <c r="B116" s="110"/>
       <c r="C116" s="22" t="s">
         <v>132</v>
       </c>
@@ -10887,8 +10887,8 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A117" s="119"/>
-      <c r="B117" s="122"/>
+      <c r="A117" s="107"/>
+      <c r="B117" s="110"/>
       <c r="C117" s="22" t="s">
         <v>118</v>
       </c>
@@ -10947,8 +10947,8 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A118" s="119"/>
-      <c r="B118" s="122"/>
+      <c r="A118" s="107"/>
+      <c r="B118" s="110"/>
       <c r="C118" s="22" t="s">
         <v>119</v>
       </c>
@@ -11007,8 +11007,8 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A119" s="119"/>
-      <c r="B119" s="122"/>
+      <c r="A119" s="107"/>
+      <c r="B119" s="110"/>
       <c r="C119" s="22" t="s">
         <v>120</v>
       </c>
@@ -11064,8 +11064,8 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A120" s="119"/>
-      <c r="B120" s="122"/>
+      <c r="A120" s="107"/>
+      <c r="B120" s="110"/>
       <c r="C120" s="22" t="s">
         <v>121</v>
       </c>
@@ -11121,8 +11121,8 @@
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A121" s="119"/>
-      <c r="B121" s="122"/>
+      <c r="A121" s="107"/>
+      <c r="B121" s="110"/>
       <c r="C121" s="22" t="s">
         <v>122</v>
       </c>
@@ -11178,8 +11178,8 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A122" s="119"/>
-      <c r="B122" s="122"/>
+      <c r="A122" s="107"/>
+      <c r="B122" s="110"/>
       <c r="C122" s="22" t="s">
         <v>123</v>
       </c>
@@ -11235,8 +11235,8 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A123" s="119"/>
-      <c r="B123" s="122"/>
+      <c r="A123" s="107"/>
+      <c r="B123" s="110"/>
       <c r="C123" s="22" t="s">
         <v>124</v>
       </c>
@@ -11292,8 +11292,8 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A124" s="119"/>
-      <c r="B124" s="122"/>
+      <c r="A124" s="107"/>
+      <c r="B124" s="110"/>
       <c r="C124" s="22" t="s">
         <v>125</v>
       </c>
@@ -11349,8 +11349,8 @@
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A125" s="119"/>
-      <c r="B125" s="122"/>
+      <c r="A125" s="107"/>
+      <c r="B125" s="110"/>
       <c r="C125" s="22" t="s">
         <v>126</v>
       </c>
@@ -11409,8 +11409,8 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A126" s="119"/>
-      <c r="B126" s="122"/>
+      <c r="A126" s="107"/>
+      <c r="B126" s="110"/>
       <c r="C126" s="22" t="s">
         <v>127</v>
       </c>
@@ -11469,8 +11469,8 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A127" s="119"/>
-      <c r="B127" s="122"/>
+      <c r="A127" s="107"/>
+      <c r="B127" s="110"/>
       <c r="C127" s="22" t="s">
         <v>128</v>
       </c>
@@ -11529,8 +11529,8 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A128" s="119"/>
-      <c r="B128" s="122"/>
+      <c r="A128" s="107"/>
+      <c r="B128" s="110"/>
       <c r="C128" s="22" t="s">
         <v>129</v>
       </c>
@@ -11589,8 +11589,8 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A129" s="119"/>
-      <c r="B129" s="122"/>
+      <c r="A129" s="107"/>
+      <c r="B129" s="110"/>
       <c r="C129" s="22" t="s">
         <v>130</v>
       </c>
@@ -11646,8 +11646,8 @@
       </c>
     </row>
     <row r="130" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="120"/>
-      <c r="B130" s="123"/>
+      <c r="A130" s="119"/>
+      <c r="B130" s="112"/>
       <c r="C130" s="59" t="s">
         <v>133</v>
       </c>
@@ -11703,10 +11703,10 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A131" s="118" t="s">
+      <c r="A131" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="121">
+      <c r="B131" s="123">
         <v>1</v>
       </c>
       <c r="C131" s="52" t="s">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="E131" s="45"/>
       <c r="F131" s="46"/>
-      <c r="G131" s="107" t="s">
+      <c r="G131" s="120" t="s">
         <v>136</v>
       </c>
       <c r="H131" s="85"/>
@@ -11772,15 +11772,15 @@
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A132" s="119"/>
-      <c r="B132" s="122"/>
+      <c r="A132" s="107"/>
+      <c r="B132" s="110"/>
       <c r="C132" s="55" t="s">
         <v>137</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G132" s="108"/>
+      <c r="G132" s="125"/>
       <c r="I132" s="86" t="str">
         <f t="shared" ref="I132:I153" si="28">IF(O132="",P132,O132)</f>
         <v/>
@@ -11832,15 +11832,15 @@
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A133" s="119"/>
-      <c r="B133" s="122"/>
+      <c r="A133" s="107"/>
+      <c r="B133" s="110"/>
       <c r="C133" s="55" t="s">
         <v>138</v>
       </c>
       <c r="D133" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G133" s="108"/>
+      <c r="G133" s="125"/>
       <c r="I133" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11892,15 +11892,15 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A134" s="119"/>
-      <c r="B134" s="122"/>
+      <c r="A134" s="107"/>
+      <c r="B134" s="110"/>
       <c r="C134" s="55" t="s">
         <v>139</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G134" s="108"/>
+      <c r="G134" s="125"/>
       <c r="I134" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11952,15 +11952,15 @@
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A135" s="119"/>
-      <c r="B135" s="122"/>
+      <c r="A135" s="107"/>
+      <c r="B135" s="110"/>
       <c r="C135" s="55" t="s">
         <v>140</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="G135" s="108"/>
+      <c r="G135" s="125"/>
       <c r="I135" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12012,15 +12012,15 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A136" s="119"/>
-      <c r="B136" s="122"/>
+      <c r="A136" s="107"/>
+      <c r="B136" s="110"/>
       <c r="C136" s="55" t="s">
         <v>141</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G136" s="108"/>
+      <c r="G136" s="125"/>
       <c r="I136" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12072,15 +12072,15 @@
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A137" s="119"/>
-      <c r="B137" s="122"/>
+      <c r="A137" s="107"/>
+      <c r="B137" s="110"/>
       <c r="C137" s="55" t="s">
         <v>142</v>
       </c>
       <c r="D137" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G137" s="108"/>
+      <c r="G137" s="125"/>
       <c r="I137" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12132,15 +12132,15 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A138" s="119"/>
-      <c r="B138" s="122"/>
+      <c r="A138" s="107"/>
+      <c r="B138" s="110"/>
       <c r="C138" s="55" t="s">
         <v>143</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G138" s="108"/>
+      <c r="G138" s="125"/>
       <c r="I138" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12192,15 +12192,15 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A139" s="119"/>
-      <c r="B139" s="122"/>
+      <c r="A139" s="107"/>
+      <c r="B139" s="110"/>
       <c r="C139" s="55" t="s">
         <v>178</v>
       </c>
       <c r="D139" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="G139" s="108"/>
+      <c r="G139" s="125"/>
       <c r="I139" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12252,15 +12252,15 @@
       </c>
     </row>
     <row r="140" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="120"/>
-      <c r="B140" s="123"/>
+      <c r="A140" s="119"/>
+      <c r="B140" s="112"/>
       <c r="C140" s="56" t="s">
         <v>144</v>
       </c>
       <c r="D140" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G140" s="124"/>
+      <c r="G140" s="126"/>
       <c r="I140" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12312,10 +12312,10 @@
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A141" s="118" t="s">
+      <c r="A141" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="121" t="s">
+      <c r="B141" s="123" t="s">
         <v>146</v>
       </c>
       <c r="C141" s="52" t="s">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="E141" s="45"/>
       <c r="F141" s="46"/>
-      <c r="G141" s="107" t="s">
+      <c r="G141" s="120" t="s">
         <v>148</v>
       </c>
       <c r="H141" s="85"/>
@@ -12381,15 +12381,15 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A142" s="119"/>
-      <c r="B142" s="122"/>
+      <c r="A142" s="107"/>
+      <c r="B142" s="110"/>
       <c r="C142" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G142" s="108"/>
+      <c r="G142" s="125"/>
       <c r="I142" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12441,8 +12441,8 @@
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A143" s="119"/>
-      <c r="B143" s="122"/>
+      <c r="A143" s="107"/>
+      <c r="B143" s="110"/>
       <c r="C143" s="55" t="s">
         <v>199</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>200</v>
       </c>
       <c r="E143" s="26"/>
-      <c r="G143" s="108"/>
+      <c r="G143" s="125"/>
       <c r="I143" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12502,8 +12502,8 @@
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A144" s="119"/>
-      <c r="B144" s="122"/>
+      <c r="A144" s="107"/>
+      <c r="B144" s="110"/>
       <c r="C144" s="55" t="s">
         <v>201</v>
       </c>
@@ -12512,7 +12512,7 @@
       </c>
       <c r="E144" s="31"/>
       <c r="F144" s="32"/>
-      <c r="G144" s="106"/>
+      <c r="G144" s="121"/>
       <c r="H144" s="89"/>
       <c r="I144" s="89" t="str">
         <f t="shared" si="28"/>
@@ -12565,8 +12565,8 @@
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A145" s="119"/>
-      <c r="B145" s="125" t="s">
+      <c r="A145" s="107"/>
+      <c r="B145" s="109" t="s">
         <v>150</v>
       </c>
       <c r="C145" s="54" t="s">
@@ -12575,7 +12575,7 @@
       <c r="D145" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G145" s="105" t="s">
+      <c r="G145" s="124" t="s">
         <v>151</v>
       </c>
       <c r="I145" s="86" t="str">
@@ -12629,15 +12629,15 @@
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A146" s="119"/>
-      <c r="B146" s="122"/>
+      <c r="A146" s="107"/>
+      <c r="B146" s="110"/>
       <c r="C146" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D146" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G146" s="108"/>
+      <c r="G146" s="125"/>
       <c r="I146" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12689,8 +12689,8 @@
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A147" s="120"/>
-      <c r="B147" s="123"/>
+      <c r="A147" s="119"/>
+      <c r="B147" s="112"/>
       <c r="C147" s="56" t="s">
         <v>199</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>202</v>
       </c>
       <c r="E147" s="26"/>
-      <c r="G147" s="108"/>
+      <c r="G147" s="125"/>
       <c r="I147" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12750,15 +12750,15 @@
       </c>
     </row>
     <row r="148" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="120"/>
-      <c r="B148" s="123"/>
+      <c r="A148" s="119"/>
+      <c r="B148" s="112"/>
       <c r="C148" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D148" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G148" s="124"/>
+      <c r="G148" s="126"/>
       <c r="I148" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12810,10 +12810,10 @@
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A149" s="109" t="s">
+      <c r="A149" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="112" t="s">
+      <c r="B149" s="132" t="s">
         <v>153</v>
       </c>
       <c r="C149" s="60" t="s">
@@ -12824,7 +12824,7 @@
       </c>
       <c r="E149" s="45"/>
       <c r="F149" s="46"/>
-      <c r="G149" s="107" t="s">
+      <c r="G149" s="120" t="s">
         <v>155</v>
       </c>
       <c r="H149" s="85"/>
@@ -12879,15 +12879,15 @@
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A150" s="110"/>
-      <c r="B150" s="113"/>
+      <c r="A150" s="130"/>
+      <c r="B150" s="133"/>
       <c r="C150" s="61" t="s">
         <v>156</v>
       </c>
       <c r="D150" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="G150" s="108"/>
+      <c r="G150" s="125"/>
       <c r="I150" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12939,15 +12939,15 @@
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A151" s="110"/>
-      <c r="B151" s="113"/>
+      <c r="A151" s="130"/>
+      <c r="B151" s="133"/>
       <c r="C151" s="61" t="s">
         <v>157</v>
       </c>
       <c r="D151" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G151" s="108"/>
+      <c r="G151" s="125"/>
       <c r="I151" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12999,15 +12999,15 @@
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A152" s="110"/>
-      <c r="B152" s="113"/>
+      <c r="A152" s="130"/>
+      <c r="B152" s="133"/>
       <c r="C152" s="61" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="G152" s="108"/>
+      <c r="G152" s="125"/>
       <c r="I152" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -13059,8 +13059,8 @@
       </c>
     </row>
     <row r="153" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="111"/>
-      <c r="B153" s="114"/>
+      <c r="A153" s="131"/>
+      <c r="B153" s="134"/>
       <c r="C153" s="62" t="s">
         <v>159</v>
       </c>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="E153" s="64"/>
       <c r="F153" s="65"/>
-      <c r="G153" s="115"/>
+      <c r="G153" s="135"/>
       <c r="H153" s="87"/>
       <c r="I153" s="87" t="str">
         <f t="shared" si="28"/>
@@ -13124,6 +13124,61 @@
     <row r="154" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="G149:G153"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="G131:G140"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A83:A130"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="B99:B114"/>
+    <mergeCell ref="B115:B130"/>
+    <mergeCell ref="A41:A82"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B3"/>
@@ -13140,61 +13195,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A83:A130"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="B99:B114"/>
-    <mergeCell ref="B115:B130"/>
-    <mergeCell ref="A41:A82"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="G149:G153"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A131:A140"/>
-    <mergeCell ref="B131:B140"/>
-    <mergeCell ref="G131:G140"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G48:G51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parent_Turtle_ver.servo_main_ver.3/Parent_Turtle_no1_video.xlsx
+++ b/Parent_Turtle_ver.servo_main_ver.3/Parent_Turtle_no1_video.xlsx
@@ -2622,30 +2622,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2656,69 +2719,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3553,7 +3553,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G3"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3578,18 +3578,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="19" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="105"/>
+      <c r="B1" s="133"/>
       <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
       <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3602,11 +3602,11 @@
       <c r="J1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="116"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="137"/>
       <c r="N1" s="21"/>
       <c r="O1" s="21" t="s">
         <v>26</v>
@@ -3620,10 +3620,10 @@
       <c r="R1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="105" t="s">
+      <c r="S1" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="105"/>
+      <c r="T1" s="133"/>
       <c r="U1" s="19" t="s">
         <v>21</v>
       </c>
@@ -3632,10 +3632,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="109">
+      <c r="B2" s="125">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -3647,7 +3647,7 @@
       <c r="E2" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="132" t="s">
         <v>216</v>
       </c>
       <c r="H2" s="86" t="s">
@@ -3704,8 +3704,8 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="122"/>
       <c r="C3" s="29" t="s">
         <v>35</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>168</v>
       </c>
       <c r="F3" s="32"/>
-      <c r="G3" s="111"/>
+      <c r="G3" s="132"/>
       <c r="H3" s="86" t="s">
         <v>212</v>
       </c>
@@ -3771,8 +3771,8 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="107"/>
-      <c r="B4" s="109">
+      <c r="A4" s="119"/>
+      <c r="B4" s="125">
         <v>2</v>
       </c>
       <c r="C4" s="34" t="s">
@@ -3784,7 +3784,7 @@
       <c r="E4" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="112" t="s">
+      <c r="G4" s="123" t="s">
         <v>217</v>
       </c>
       <c r="H4" s="88" t="s">
@@ -3841,8 +3841,8 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="107"/>
-      <c r="B5" s="112"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="E5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="109"/>
+      <c r="G5" s="125"/>
       <c r="H5" s="89" t="s">
         <v>214</v>
       </c>
@@ -3907,8 +3907,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="107"/>
-      <c r="B6" s="110">
+      <c r="A6" s="119"/>
+      <c r="B6" s="122">
         <v>3</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -3923,7 +3923,7 @@
       <c r="F6" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="111" t="s">
+      <c r="G6" s="132" t="s">
         <v>240</v>
       </c>
       <c r="H6" s="86" t="s">
@@ -3980,8 +3980,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="107"/>
-      <c r="B7" s="110"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="122"/>
       <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="F7" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="111"/>
+      <c r="G7" s="132"/>
       <c r="H7" s="86" t="s">
         <v>242</v>
       </c>
@@ -4049,8 +4049,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="107"/>
-      <c r="B8" s="109">
+      <c r="A8" s="119"/>
+      <c r="B8" s="125">
         <v>4</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -4062,7 +4062,7 @@
       <c r="E8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="112"/>
+      <c r="G8" s="123"/>
       <c r="H8" s="88"/>
       <c r="I8" s="88" t="str">
         <f>IF(O8="",P8,O8)</f>
@@ -4115,8 +4115,8 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="107"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="34" t="s">
         <v>35</v>
       </c>
@@ -4126,7 +4126,7 @@
       <c r="E9" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="109"/>
+      <c r="G9" s="125"/>
       <c r="H9" s="89"/>
       <c r="I9" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4179,8 +4179,8 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="107"/>
-      <c r="B10" s="110">
+      <c r="A10" s="119"/>
+      <c r="B10" s="122">
         <v>5</v>
       </c>
       <c r="C10" s="22" t="s">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="111"/>
+      <c r="G10" s="132"/>
       <c r="I10" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4243,8 +4243,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="107"/>
-      <c r="B11" s="110"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="29" t="s">
         <v>35</v>
       </c>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="111"/>
+      <c r="G11" s="132"/>
       <c r="I11" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4305,8 +4305,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="107"/>
-      <c r="B12" s="109">
+      <c r="A12" s="119"/>
+      <c r="B12" s="125">
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -4315,7 +4315,7 @@
       <c r="D12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="112"/>
+      <c r="G12" s="123"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4368,15 +4368,15 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="107"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="109"/>
+      <c r="G13" s="125"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89" t="str">
         <f t="shared" si="6"/>
@@ -4429,8 +4429,8 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="107"/>
-      <c r="B14" s="110">
+      <c r="A14" s="119"/>
+      <c r="B14" s="122">
         <v>7</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -4439,7 +4439,7 @@
       <c r="D14" s="36"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="111"/>
+      <c r="G14" s="132"/>
       <c r="I14" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4491,15 +4491,15 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="107"/>
-      <c r="B15" s="110"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="122"/>
       <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="111"/>
+      <c r="G15" s="132"/>
       <c r="I15" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4551,14 +4551,14 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="107"/>
-      <c r="B16" s="109">
+      <c r="A16" s="119"/>
+      <c r="B16" s="125">
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="112"/>
+      <c r="G16" s="123"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88" t="str">
         <f t="shared" si="6"/>
@@ -4611,15 +4611,15 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="108"/>
-      <c r="B17" s="117"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="130"/>
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="41"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="118"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="90"/>
       <c r="I17" s="90" t="str">
         <f t="shared" si="6"/>
@@ -4672,10 +4672,10 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="109">
+      <c r="B18" s="125">
         <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
@@ -4687,7 +4687,7 @@
       <c r="E18" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="120"/>
+      <c r="G18" s="107"/>
       <c r="I18" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4739,8 +4739,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="107"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="123"/>
       <c r="C19" s="29" t="s">
         <v>35</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="E19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="121"/>
+      <c r="G19" s="106"/>
       <c r="I19" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4802,8 +4802,8 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110">
+      <c r="A20" s="119"/>
+      <c r="B20" s="122">
         <v>2</v>
       </c>
       <c r="C20" s="34" t="s">
@@ -4816,7 +4816,7 @@
         <v>61</v>
       </c>
       <c r="F20" s="38"/>
-      <c r="G20" s="112" t="s">
+      <c r="G20" s="123" t="s">
         <v>215</v>
       </c>
       <c r="H20" s="88" t="s">
@@ -4873,8 +4873,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="119"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="39" t="s">
         <v>62</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>64</v>
       </c>
       <c r="F21" s="42"/>
-      <c r="G21" s="118"/>
+      <c r="G21" s="131"/>
       <c r="H21" s="90" t="s">
         <v>210</v>
       </c>
@@ -4940,10 +4940,10 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="123">
+      <c r="B22" s="121">
         <v>1</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -4956,7 +4956,7 @@
         <v>67</v>
       </c>
       <c r="F22" s="46"/>
-      <c r="G22" s="120"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="86" t="s">
         <v>233</v>
       </c>
@@ -5011,8 +5011,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="107"/>
-      <c r="B23" s="112"/>
+      <c r="A23" s="119"/>
+      <c r="B23" s="123"/>
       <c r="C23" s="34" t="s">
         <v>68</v>
       </c>
@@ -5022,7 +5022,7 @@
       <c r="E23" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="121"/>
+      <c r="G23" s="106"/>
       <c r="H23" s="86" t="s">
         <v>234</v>
       </c>
@@ -5077,8 +5077,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="107"/>
-      <c r="B24" s="110">
+      <c r="A24" s="119"/>
+      <c r="B24" s="122">
         <v>2</v>
       </c>
       <c r="C24" s="22" t="s">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="112"/>
+      <c r="G24" s="123"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5142,8 +5142,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="107"/>
-      <c r="B25" s="110"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="34" t="s">
         <v>70</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="109"/>
+      <c r="G25" s="125"/>
       <c r="H25" s="89"/>
       <c r="I25" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5205,8 +5205,8 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="107"/>
-      <c r="B26" s="109">
+      <c r="A26" s="119"/>
+      <c r="B26" s="125">
         <v>3</v>
       </c>
       <c r="C26" s="22" t="s">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="124"/>
+      <c r="G26" s="105"/>
       <c r="I26" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5269,8 +5269,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A27" s="107"/>
-      <c r="B27" s="110"/>
+      <c r="A27" s="119"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="34" t="s">
         <v>70</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>78</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="121"/>
+      <c r="G27" s="106"/>
       <c r="I27" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5333,14 +5333,14 @@
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A28" s="107"/>
-      <c r="B28" s="110">
+      <c r="A28" s="119"/>
+      <c r="B28" s="122">
         <v>4</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="112"/>
+      <c r="G28" s="123"/>
       <c r="H28" s="88"/>
       <c r="I28" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5393,15 +5393,15 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="108"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="129"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="39" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="41"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="118"/>
+      <c r="G29" s="131"/>
       <c r="H29" s="90"/>
       <c r="I29" s="90" t="str">
         <f t="shared" si="6"/>
@@ -5454,7 +5454,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="128" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="47" t="s">
@@ -5516,8 +5516,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="107"/>
-      <c r="B31" s="110" t="s">
+      <c r="A31" s="119"/>
+      <c r="B31" s="122" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="34" t="s">
@@ -5526,7 +5526,7 @@
       <c r="D31" s="36"/>
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
-      <c r="G31" s="124"/>
+      <c r="G31" s="105"/>
       <c r="H31" s="88"/>
       <c r="I31" s="88" t="str">
         <f t="shared" si="6"/>
@@ -5579,14 +5579,14 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="107"/>
-      <c r="B32" s="110"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="50"/>
-      <c r="G32" s="125"/>
+      <c r="G32" s="108"/>
       <c r="I32" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5638,14 +5638,14 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A33" s="107"/>
-      <c r="B33" s="110"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="48"/>
       <c r="E33" s="50"/>
-      <c r="G33" s="125"/>
+      <c r="G33" s="108"/>
       <c r="I33" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5697,14 +5697,14 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A34" s="107"/>
-      <c r="B34" s="110"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="122"/>
       <c r="C34" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="50"/>
-      <c r="G34" s="125"/>
+      <c r="G34" s="108"/>
       <c r="I34" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5756,15 +5756,15 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A35" s="107"/>
-      <c r="B35" s="110"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="121"/>
+      <c r="G35" s="106"/>
       <c r="H35" s="89"/>
       <c r="I35" s="89" t="str">
         <f t="shared" si="6"/>
@@ -5817,15 +5817,15 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="107"/>
-      <c r="B36" s="109" t="s">
+      <c r="A36" s="119"/>
+      <c r="B36" s="125" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="48"/>
-      <c r="G36" s="124"/>
+      <c r="G36" s="105"/>
       <c r="I36" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5877,14 +5877,14 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="107"/>
-      <c r="B37" s="110"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="34" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="50"/>
-      <c r="G37" s="125"/>
+      <c r="G37" s="108"/>
       <c r="I37" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5936,14 +5936,14 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="107"/>
-      <c r="B38" s="110"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="122"/>
       <c r="C38" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="50"/>
-      <c r="G38" s="125"/>
+      <c r="G38" s="108"/>
       <c r="I38" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5995,14 +5995,14 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="107"/>
-      <c r="B39" s="110"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="122"/>
       <c r="C39" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="48"/>
       <c r="E39" s="50"/>
-      <c r="G39" s="125"/>
+      <c r="G39" s="108"/>
       <c r="I39" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6054,12 +6054,12 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="119"/>
-      <c r="B40" s="112"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="123"/>
       <c r="C40" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="126"/>
+      <c r="G40" s="124"/>
       <c r="I40" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6111,10 +6111,10 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="127" t="s">
+      <c r="A41" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="123">
+      <c r="B41" s="121">
         <v>1</v>
       </c>
       <c r="C41" s="52" t="s">
@@ -6127,7 +6127,7 @@
       <c r="F41" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="120" t="s">
+      <c r="G41" s="107" t="s">
         <v>208</v>
       </c>
       <c r="H41" s="85" t="s">
@@ -6184,8 +6184,8 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42" s="128"/>
-      <c r="B42" s="109"/>
+      <c r="A42" s="127"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="54" t="s">
         <v>91</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="F42" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="125"/>
+      <c r="G42" s="108"/>
       <c r="I42" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6250,8 +6250,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A43" s="128"/>
-      <c r="B43" s="110"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="122"/>
       <c r="C43" s="55" t="s">
         <v>93</v>
       </c>
@@ -6262,7 +6262,7 @@
       <c r="F43" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="125"/>
+      <c r="G43" s="108"/>
       <c r="H43" s="86" t="s">
         <v>219</v>
       </c>
@@ -6317,8 +6317,8 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A44" s="128"/>
-      <c r="B44" s="110"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="55" t="s">
         <v>95</v>
       </c>
@@ -6331,7 +6331,7 @@
       <c r="F44" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="125"/>
+      <c r="G44" s="108"/>
       <c r="I44" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6383,8 +6383,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A45" s="128"/>
-      <c r="B45" s="110"/>
+      <c r="A45" s="127"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="55" t="s">
         <v>98</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="F45" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="125"/>
+      <c r="G45" s="108"/>
       <c r="H45" s="86" t="s">
         <v>220</v>
       </c>
@@ -6450,8 +6450,8 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A46" s="128"/>
-      <c r="B46" s="110"/>
+      <c r="A46" s="127"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="55" t="s">
         <v>100</v>
       </c>
@@ -6464,7 +6464,7 @@
       <c r="F46" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G46" s="125"/>
+      <c r="G46" s="108"/>
       <c r="I46" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6516,8 +6516,8 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A47" s="128"/>
-      <c r="B47" s="110"/>
+      <c r="A47" s="127"/>
+      <c r="B47" s="122"/>
       <c r="C47" s="55" t="s">
         <v>104</v>
       </c>
@@ -6528,7 +6528,7 @@
       <c r="F47" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="121"/>
+      <c r="G47" s="106"/>
       <c r="H47" s="89" t="s">
         <v>221</v>
       </c>
@@ -6583,8 +6583,8 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A48" s="128"/>
-      <c r="B48" s="109">
+      <c r="A48" s="127"/>
+      <c r="B48" s="125">
         <v>2</v>
       </c>
       <c r="C48" s="54" t="s">
@@ -6599,7 +6599,7 @@
       <c r="F48" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="124" t="s">
+      <c r="G48" s="105" t="s">
         <v>230</v>
       </c>
       <c r="H48" s="86" t="s">
@@ -6656,8 +6656,8 @@
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A49" s="128"/>
-      <c r="B49" s="110"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="55" t="s">
         <v>93</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="E49" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="125"/>
+      <c r="G49" s="108"/>
       <c r="H49" s="86" t="s">
         <v>223</v>
       </c>
@@ -6722,8 +6722,8 @@
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A50" s="128"/>
-      <c r="B50" s="110"/>
+      <c r="A50" s="127"/>
+      <c r="B50" s="122"/>
       <c r="C50" s="55" t="s">
         <v>98</v>
       </c>
@@ -6733,7 +6733,7 @@
       <c r="E50" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="125"/>
+      <c r="G50" s="108"/>
       <c r="H50" s="86" t="s">
         <v>224</v>
       </c>
@@ -6788,8 +6788,8 @@
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A51" s="128"/>
-      <c r="B51" s="112"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="123"/>
       <c r="C51" s="56" t="s">
         <v>104</v>
       </c>
@@ -6799,7 +6799,7 @@
       <c r="E51" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G51" s="121"/>
+      <c r="G51" s="106"/>
       <c r="H51" s="89" t="s">
         <v>225</v>
       </c>
@@ -6854,8 +6854,8 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A52" s="128"/>
-      <c r="B52" s="110">
+      <c r="A52" s="127"/>
+      <c r="B52" s="122">
         <v>3</v>
       </c>
       <c r="C52" s="55" t="s">
@@ -6870,7 +6870,7 @@
       <c r="F52" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="124" t="s">
+      <c r="G52" s="105" t="s">
         <v>208</v>
       </c>
       <c r="H52" s="86" t="s">
@@ -6927,8 +6927,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A53" s="128"/>
-      <c r="B53" s="110"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="122"/>
       <c r="C53" s="55" t="s">
         <v>93</v>
       </c>
@@ -6941,7 +6941,7 @@
       <c r="F53" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="125"/>
+      <c r="G53" s="108"/>
       <c r="H53" s="86" t="s">
         <v>227</v>
       </c>
@@ -6996,8 +6996,8 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A54" s="128"/>
-      <c r="B54" s="110"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="122"/>
       <c r="C54" s="55" t="s">
         <v>98</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="F54" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G54" s="125"/>
+      <c r="G54" s="108"/>
       <c r="H54" s="86" t="s">
         <v>228</v>
       </c>
@@ -7063,8 +7063,8 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A55" s="128"/>
-      <c r="B55" s="110"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="122"/>
       <c r="C55" s="55" t="s">
         <v>104</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="F55" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="G55" s="121"/>
+      <c r="G55" s="106"/>
       <c r="H55" s="89" t="s">
         <v>229</v>
       </c>
@@ -7130,8 +7130,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A56" s="128"/>
-      <c r="B56" s="109">
+      <c r="A56" s="127"/>
+      <c r="B56" s="125">
         <v>4</v>
       </c>
       <c r="C56" s="54" t="s">
@@ -7195,8 +7195,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A57" s="128"/>
-      <c r="B57" s="110"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="122"/>
       <c r="C57" s="55" t="s">
         <v>93</v>
       </c>
@@ -7258,8 +7258,8 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A58" s="128"/>
-      <c r="B58" s="110"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="122"/>
       <c r="C58" s="55" t="s">
         <v>98</v>
       </c>
@@ -7321,8 +7321,8 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A59" s="128"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="123"/>
       <c r="C59" s="56" t="s">
         <v>104</v>
       </c>
@@ -7389,8 +7389,8 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A60" s="128"/>
-      <c r="B60" s="110">
+      <c r="A60" s="127"/>
+      <c r="B60" s="122">
         <v>5</v>
       </c>
       <c r="C60" s="55" t="s">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
-      <c r="G60" s="124"/>
+      <c r="G60" s="105"/>
       <c r="I60" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7453,15 +7453,15 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A61" s="128"/>
-      <c r="B61" s="110"/>
+      <c r="A61" s="127"/>
+      <c r="B61" s="122"/>
       <c r="C61" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="125"/>
+      <c r="G61" s="108"/>
       <c r="I61" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7513,15 +7513,15 @@
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A62" s="128"/>
-      <c r="B62" s="110"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="122"/>
       <c r="C62" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G62" s="125"/>
+      <c r="G62" s="108"/>
       <c r="I62" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7573,8 +7573,8 @@
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A63" s="128"/>
-      <c r="B63" s="110"/>
+      <c r="A63" s="127"/>
+      <c r="B63" s="122"/>
       <c r="C63" s="55" t="s">
         <v>104</v>
       </c>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
-      <c r="G63" s="121"/>
+      <c r="G63" s="106"/>
       <c r="H63" s="89"/>
       <c r="I63" s="89" t="str">
         <f t="shared" si="6"/>
@@ -7636,8 +7636,8 @@
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A64" s="128"/>
-      <c r="B64" s="109">
+      <c r="A64" s="127"/>
+      <c r="B64" s="125">
         <v>6</v>
       </c>
       <c r="C64" s="54" t="s">
@@ -7695,8 +7695,8 @@
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A65" s="128"/>
-      <c r="B65" s="110"/>
+      <c r="A65" s="127"/>
+      <c r="B65" s="122"/>
       <c r="C65" s="55" t="s">
         <v>93</v>
       </c>
@@ -7752,8 +7752,8 @@
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A66" s="128"/>
-      <c r="B66" s="110"/>
+      <c r="A66" s="127"/>
+      <c r="B66" s="122"/>
       <c r="C66" s="55" t="s">
         <v>98</v>
       </c>
@@ -7809,8 +7809,8 @@
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A67" s="128"/>
-      <c r="B67" s="112"/>
+      <c r="A67" s="127"/>
+      <c r="B67" s="123"/>
       <c r="C67" s="56" t="s">
         <v>104</v>
       </c>
@@ -7867,8 +7867,8 @@
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A68" s="128"/>
-      <c r="B68" s="110">
+      <c r="A68" s="127"/>
+      <c r="B68" s="122">
         <v>8</v>
       </c>
       <c r="C68" s="55" t="s">
@@ -7931,8 +7931,8 @@
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A69" s="128"/>
-      <c r="B69" s="109"/>
+      <c r="A69" s="127"/>
+      <c r="B69" s="125"/>
       <c r="C69" s="54" t="s">
         <v>91</v>
       </c>
@@ -7994,8 +7994,8 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A70" s="128"/>
-      <c r="B70" s="110"/>
+      <c r="A70" s="127"/>
+      <c r="B70" s="122"/>
       <c r="C70" s="55" t="s">
         <v>93</v>
       </c>
@@ -8054,8 +8054,8 @@
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A71" s="128"/>
-      <c r="B71" s="110"/>
+      <c r="A71" s="127"/>
+      <c r="B71" s="122"/>
       <c r="C71" s="55" t="s">
         <v>95</v>
       </c>
@@ -8117,8 +8117,8 @@
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A72" s="128"/>
-      <c r="B72" s="110"/>
+      <c r="A72" s="127"/>
+      <c r="B72" s="122"/>
       <c r="C72" s="55" t="s">
         <v>98</v>
       </c>
@@ -8177,8 +8177,8 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A73" s="128"/>
-      <c r="B73" s="110"/>
+      <c r="A73" s="127"/>
+      <c r="B73" s="122"/>
       <c r="C73" s="55" t="s">
         <v>100</v>
       </c>
@@ -8240,8 +8240,8 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A74" s="128"/>
-      <c r="B74" s="110"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="122"/>
       <c r="C74" s="55" t="s">
         <v>104</v>
       </c>
@@ -8303,8 +8303,8 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A75" s="128"/>
-      <c r="B75" s="112">
+      <c r="A75" s="127"/>
+      <c r="B75" s="123">
         <v>9</v>
       </c>
       <c r="C75" s="55" t="s">
@@ -8317,7 +8317,7 @@
         <v>113</v>
       </c>
       <c r="F75" s="38"/>
-      <c r="G75" s="124"/>
+      <c r="G75" s="105"/>
       <c r="I75" s="86" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -8369,8 +8369,8 @@
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A76" s="128"/>
-      <c r="B76" s="109"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="125"/>
       <c r="C76" s="55" t="s">
         <v>93</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>114</v>
       </c>
       <c r="F76" s="32"/>
-      <c r="G76" s="121"/>
+      <c r="G76" s="106"/>
       <c r="H76" s="89"/>
       <c r="I76" s="89" t="str">
         <f t="shared" si="17"/>
@@ -8434,7 +8434,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A77" s="128"/>
+      <c r="A77" s="127"/>
       <c r="B77" s="57">
         <v>10</v>
       </c>
@@ -8499,7 +8499,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A78" s="128"/>
+      <c r="A78" s="127"/>
       <c r="B78" s="37">
         <v>11</v>
       </c>
@@ -8562,8 +8562,8 @@
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A79" s="128"/>
-      <c r="B79" s="136">
+      <c r="A79" s="127"/>
+      <c r="B79" s="116">
         <v>12</v>
       </c>
       <c r="C79" s="56" t="s">
@@ -8626,8 +8626,8 @@
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A80" s="128"/>
-      <c r="B80" s="137"/>
+      <c r="A80" s="127"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="56" t="s">
         <v>93</v>
       </c>
@@ -8689,7 +8689,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A81" s="128"/>
+      <c r="A81" s="127"/>
       <c r="B81" s="37">
         <v>13</v>
       </c>
@@ -8752,7 +8752,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="128"/>
+      <c r="A82" s="127"/>
       <c r="B82" s="37">
         <v>14</v>
       </c>
@@ -8816,10 +8816,10 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A83" s="122" t="s">
+      <c r="A83" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="123">
+      <c r="B83" s="121">
         <v>1</v>
       </c>
       <c r="C83" s="58" t="s">
@@ -8883,8 +8883,8 @@
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A84" s="107"/>
-      <c r="B84" s="110"/>
+      <c r="A84" s="119"/>
+      <c r="B84" s="122"/>
       <c r="C84" s="55" t="s">
         <v>117</v>
       </c>
@@ -8943,8 +8943,8 @@
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A85" s="107"/>
-      <c r="B85" s="110"/>
+      <c r="A85" s="119"/>
+      <c r="B85" s="122"/>
       <c r="C85" s="55" t="s">
         <v>118</v>
       </c>
@@ -9003,8 +9003,8 @@
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A86" s="107"/>
-      <c r="B86" s="110"/>
+      <c r="A86" s="119"/>
+      <c r="B86" s="122"/>
       <c r="C86" s="55" t="s">
         <v>119</v>
       </c>
@@ -9063,8 +9063,8 @@
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A87" s="107"/>
-      <c r="B87" s="110"/>
+      <c r="A87" s="119"/>
+      <c r="B87" s="122"/>
       <c r="C87" s="55" t="s">
         <v>120</v>
       </c>
@@ -9123,8 +9123,8 @@
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A88" s="107"/>
-      <c r="B88" s="110"/>
+      <c r="A88" s="119"/>
+      <c r="B88" s="122"/>
       <c r="C88" s="55" t="s">
         <v>121</v>
       </c>
@@ -9183,8 +9183,8 @@
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A89" s="107"/>
-      <c r="B89" s="110"/>
+      <c r="A89" s="119"/>
+      <c r="B89" s="122"/>
       <c r="C89" s="55" t="s">
         <v>122</v>
       </c>
@@ -9243,8 +9243,8 @@
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A90" s="107"/>
-      <c r="B90" s="110"/>
+      <c r="A90" s="119"/>
+      <c r="B90" s="122"/>
       <c r="C90" s="55" t="s">
         <v>123</v>
       </c>
@@ -9303,8 +9303,8 @@
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A91" s="107"/>
-      <c r="B91" s="110"/>
+      <c r="A91" s="119"/>
+      <c r="B91" s="122"/>
       <c r="C91" s="55" t="s">
         <v>124</v>
       </c>
@@ -9363,8 +9363,8 @@
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A92" s="107"/>
-      <c r="B92" s="110"/>
+      <c r="A92" s="119"/>
+      <c r="B92" s="122"/>
       <c r="C92" s="55" t="s">
         <v>125</v>
       </c>
@@ -9423,15 +9423,15 @@
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A93" s="107"/>
-      <c r="B93" s="110"/>
+      <c r="A93" s="119"/>
+      <c r="B93" s="122"/>
       <c r="C93" s="55" t="s">
         <v>126</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G93" s="125" t="s">
+      <c r="G93" s="108" t="s">
         <v>235</v>
       </c>
       <c r="H93" s="86" t="s">
@@ -9488,15 +9488,15 @@
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" s="107"/>
-      <c r="B94" s="110"/>
+      <c r="A94" s="119"/>
+      <c r="B94" s="122"/>
       <c r="C94" s="55" t="s">
         <v>127</v>
       </c>
       <c r="D94" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G94" s="125"/>
+      <c r="G94" s="108"/>
       <c r="H94" s="86" t="s">
         <v>237</v>
       </c>
@@ -9551,15 +9551,15 @@
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" s="107"/>
-      <c r="B95" s="110"/>
+      <c r="A95" s="119"/>
+      <c r="B95" s="122"/>
       <c r="C95" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D95" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="G95" s="125"/>
+      <c r="G95" s="108"/>
       <c r="H95" s="86" t="s">
         <v>238</v>
       </c>
@@ -9614,15 +9614,15 @@
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" s="107"/>
-      <c r="B96" s="110"/>
+      <c r="A96" s="119"/>
+      <c r="B96" s="122"/>
       <c r="C96" s="55" t="s">
         <v>129</v>
       </c>
       <c r="D96" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="G96" s="125"/>
+      <c r="G96" s="108"/>
       <c r="H96" s="86" t="s">
         <v>239</v>
       </c>
@@ -9677,8 +9677,8 @@
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" s="107"/>
-      <c r="B97" s="110"/>
+      <c r="A97" s="119"/>
+      <c r="B97" s="122"/>
       <c r="C97" s="55" t="s">
         <v>130</v>
       </c>
@@ -9737,8 +9737,8 @@
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A98" s="107"/>
-      <c r="B98" s="112"/>
+      <c r="A98" s="119"/>
+      <c r="B98" s="123"/>
       <c r="C98" s="55" t="s">
         <v>131</v>
       </c>
@@ -9798,8 +9798,8 @@
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A99" s="107"/>
-      <c r="B99" s="110">
+      <c r="A99" s="119"/>
+      <c r="B99" s="122">
         <v>2</v>
       </c>
       <c r="C99" s="34" t="s">
@@ -9862,8 +9862,8 @@
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A100" s="107"/>
-      <c r="B100" s="110"/>
+      <c r="A100" s="119"/>
+      <c r="B100" s="122"/>
       <c r="C100" s="34" t="s">
         <v>132</v>
       </c>
@@ -9922,8 +9922,8 @@
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A101" s="107"/>
-      <c r="B101" s="110"/>
+      <c r="A101" s="119"/>
+      <c r="B101" s="122"/>
       <c r="C101" s="34" t="s">
         <v>118</v>
       </c>
@@ -9982,8 +9982,8 @@
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A102" s="107"/>
-      <c r="B102" s="110"/>
+      <c r="A102" s="119"/>
+      <c r="B102" s="122"/>
       <c r="C102" s="34" t="s">
         <v>119</v>
       </c>
@@ -10042,8 +10042,8 @@
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A103" s="107"/>
-      <c r="B103" s="110"/>
+      <c r="A103" s="119"/>
+      <c r="B103" s="122"/>
       <c r="C103" s="34" t="s">
         <v>120</v>
       </c>
@@ -10102,8 +10102,8 @@
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A104" s="107"/>
-      <c r="B104" s="110"/>
+      <c r="A104" s="119"/>
+      <c r="B104" s="122"/>
       <c r="C104" s="34" t="s">
         <v>121</v>
       </c>
@@ -10162,8 +10162,8 @@
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A105" s="107"/>
-      <c r="B105" s="110"/>
+      <c r="A105" s="119"/>
+      <c r="B105" s="122"/>
       <c r="C105" s="34" t="s">
         <v>122</v>
       </c>
@@ -10222,8 +10222,8 @@
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A106" s="107"/>
-      <c r="B106" s="110"/>
+      <c r="A106" s="119"/>
+      <c r="B106" s="122"/>
       <c r="C106" s="34" t="s">
         <v>123</v>
       </c>
@@ -10282,8 +10282,8 @@
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A107" s="107"/>
-      <c r="B107" s="110"/>
+      <c r="A107" s="119"/>
+      <c r="B107" s="122"/>
       <c r="C107" s="34" t="s">
         <v>124</v>
       </c>
@@ -10342,8 +10342,8 @@
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A108" s="107"/>
-      <c r="B108" s="110"/>
+      <c r="A108" s="119"/>
+      <c r="B108" s="122"/>
       <c r="C108" s="34" t="s">
         <v>125</v>
       </c>
@@ -10402,8 +10402,8 @@
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A109" s="107"/>
-      <c r="B109" s="110"/>
+      <c r="A109" s="119"/>
+      <c r="B109" s="122"/>
       <c r="C109" s="34" t="s">
         <v>126</v>
       </c>
@@ -10462,8 +10462,8 @@
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A110" s="107"/>
-      <c r="B110" s="110"/>
+      <c r="A110" s="119"/>
+      <c r="B110" s="122"/>
       <c r="C110" s="34" t="s">
         <v>127</v>
       </c>
@@ -10522,8 +10522,8 @@
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A111" s="107"/>
-      <c r="B111" s="110"/>
+      <c r="A111" s="119"/>
+      <c r="B111" s="122"/>
       <c r="C111" s="34" t="s">
         <v>128</v>
       </c>
@@ -10582,8 +10582,8 @@
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A112" s="107"/>
-      <c r="B112" s="110"/>
+      <c r="A112" s="119"/>
+      <c r="B112" s="122"/>
       <c r="C112" s="34" t="s">
         <v>129</v>
       </c>
@@ -10642,8 +10642,8 @@
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A113" s="107"/>
-      <c r="B113" s="110"/>
+      <c r="A113" s="119"/>
+      <c r="B113" s="122"/>
       <c r="C113" s="34" t="s">
         <v>130</v>
       </c>
@@ -10702,8 +10702,8 @@
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A114" s="107"/>
-      <c r="B114" s="110"/>
+      <c r="A114" s="119"/>
+      <c r="B114" s="122"/>
       <c r="C114" s="34" t="s">
         <v>131</v>
       </c>
@@ -10765,8 +10765,8 @@
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A115" s="107"/>
-      <c r="B115" s="109">
+      <c r="A115" s="119"/>
+      <c r="B115" s="125">
         <v>3</v>
       </c>
       <c r="C115" s="22" t="s">
@@ -10827,8 +10827,8 @@
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A116" s="107"/>
-      <c r="B116" s="110"/>
+      <c r="A116" s="119"/>
+      <c r="B116" s="122"/>
       <c r="C116" s="22" t="s">
         <v>132</v>
       </c>
@@ -10887,8 +10887,8 @@
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A117" s="107"/>
-      <c r="B117" s="110"/>
+      <c r="A117" s="119"/>
+      <c r="B117" s="122"/>
       <c r="C117" s="22" t="s">
         <v>118</v>
       </c>
@@ -10947,8 +10947,8 @@
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A118" s="107"/>
-      <c r="B118" s="110"/>
+      <c r="A118" s="119"/>
+      <c r="B118" s="122"/>
       <c r="C118" s="22" t="s">
         <v>119</v>
       </c>
@@ -11007,8 +11007,8 @@
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A119" s="107"/>
-      <c r="B119" s="110"/>
+      <c r="A119" s="119"/>
+      <c r="B119" s="122"/>
       <c r="C119" s="22" t="s">
         <v>120</v>
       </c>
@@ -11064,8 +11064,8 @@
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A120" s="107"/>
-      <c r="B120" s="110"/>
+      <c r="A120" s="119"/>
+      <c r="B120" s="122"/>
       <c r="C120" s="22" t="s">
         <v>121</v>
       </c>
@@ -11121,8 +11121,8 @@
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A121" s="107"/>
-      <c r="B121" s="110"/>
+      <c r="A121" s="119"/>
+      <c r="B121" s="122"/>
       <c r="C121" s="22" t="s">
         <v>122</v>
       </c>
@@ -11178,8 +11178,8 @@
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A122" s="107"/>
-      <c r="B122" s="110"/>
+      <c r="A122" s="119"/>
+      <c r="B122" s="122"/>
       <c r="C122" s="22" t="s">
         <v>123</v>
       </c>
@@ -11235,8 +11235,8 @@
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A123" s="107"/>
-      <c r="B123" s="110"/>
+      <c r="A123" s="119"/>
+      <c r="B123" s="122"/>
       <c r="C123" s="22" t="s">
         <v>124</v>
       </c>
@@ -11292,8 +11292,8 @@
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A124" s="107"/>
-      <c r="B124" s="110"/>
+      <c r="A124" s="119"/>
+      <c r="B124" s="122"/>
       <c r="C124" s="22" t="s">
         <v>125</v>
       </c>
@@ -11349,8 +11349,8 @@
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A125" s="107"/>
-      <c r="B125" s="110"/>
+      <c r="A125" s="119"/>
+      <c r="B125" s="122"/>
       <c r="C125" s="22" t="s">
         <v>126</v>
       </c>
@@ -11409,8 +11409,8 @@
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A126" s="107"/>
-      <c r="B126" s="110"/>
+      <c r="A126" s="119"/>
+      <c r="B126" s="122"/>
       <c r="C126" s="22" t="s">
         <v>127</v>
       </c>
@@ -11469,8 +11469,8 @@
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A127" s="107"/>
-      <c r="B127" s="110"/>
+      <c r="A127" s="119"/>
+      <c r="B127" s="122"/>
       <c r="C127" s="22" t="s">
         <v>128</v>
       </c>
@@ -11529,8 +11529,8 @@
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A128" s="107"/>
-      <c r="B128" s="110"/>
+      <c r="A128" s="119"/>
+      <c r="B128" s="122"/>
       <c r="C128" s="22" t="s">
         <v>129</v>
       </c>
@@ -11589,8 +11589,8 @@
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A129" s="107"/>
-      <c r="B129" s="110"/>
+      <c r="A129" s="119"/>
+      <c r="B129" s="122"/>
       <c r="C129" s="22" t="s">
         <v>130</v>
       </c>
@@ -11646,8 +11646,8 @@
       </c>
     </row>
     <row r="130" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="119"/>
-      <c r="B130" s="112"/>
+      <c r="A130" s="120"/>
+      <c r="B130" s="123"/>
       <c r="C130" s="59" t="s">
         <v>133</v>
       </c>
@@ -11703,10 +11703,10 @@
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A131" s="122" t="s">
+      <c r="A131" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="B131" s="123">
+      <c r="B131" s="121">
         <v>1</v>
       </c>
       <c r="C131" s="52" t="s">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="E131" s="45"/>
       <c r="F131" s="46"/>
-      <c r="G131" s="120" t="s">
+      <c r="G131" s="107" t="s">
         <v>136</v>
       </c>
       <c r="H131" s="85"/>
@@ -11772,15 +11772,15 @@
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A132" s="107"/>
-      <c r="B132" s="110"/>
+      <c r="A132" s="119"/>
+      <c r="B132" s="122"/>
       <c r="C132" s="55" t="s">
         <v>137</v>
       </c>
       <c r="D132" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="G132" s="125"/>
+      <c r="G132" s="108"/>
       <c r="I132" s="86" t="str">
         <f t="shared" ref="I132:I153" si="28">IF(O132="",P132,O132)</f>
         <v/>
@@ -11832,15 +11832,15 @@
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A133" s="107"/>
-      <c r="B133" s="110"/>
+      <c r="A133" s="119"/>
+      <c r="B133" s="122"/>
       <c r="C133" s="55" t="s">
         <v>138</v>
       </c>
       <c r="D133" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G133" s="125"/>
+      <c r="G133" s="108"/>
       <c r="I133" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11892,15 +11892,15 @@
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A134" s="107"/>
-      <c r="B134" s="110"/>
+      <c r="A134" s="119"/>
+      <c r="B134" s="122"/>
       <c r="C134" s="55" t="s">
         <v>139</v>
       </c>
       <c r="D134" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G134" s="125"/>
+      <c r="G134" s="108"/>
       <c r="I134" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11952,15 +11952,15 @@
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A135" s="107"/>
-      <c r="B135" s="110"/>
+      <c r="A135" s="119"/>
+      <c r="B135" s="122"/>
       <c r="C135" s="55" t="s">
         <v>140</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="G135" s="125"/>
+      <c r="G135" s="108"/>
       <c r="I135" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12012,15 +12012,15 @@
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A136" s="107"/>
-      <c r="B136" s="110"/>
+      <c r="A136" s="119"/>
+      <c r="B136" s="122"/>
       <c r="C136" s="55" t="s">
         <v>141</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G136" s="125"/>
+      <c r="G136" s="108"/>
       <c r="I136" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12072,15 +12072,15 @@
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A137" s="107"/>
-      <c r="B137" s="110"/>
+      <c r="A137" s="119"/>
+      <c r="B137" s="122"/>
       <c r="C137" s="55" t="s">
         <v>142</v>
       </c>
       <c r="D137" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G137" s="125"/>
+      <c r="G137" s="108"/>
       <c r="I137" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12132,15 +12132,15 @@
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A138" s="107"/>
-      <c r="B138" s="110"/>
+      <c r="A138" s="119"/>
+      <c r="B138" s="122"/>
       <c r="C138" s="55" t="s">
         <v>143</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="G138" s="125"/>
+      <c r="G138" s="108"/>
       <c r="I138" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12192,15 +12192,15 @@
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A139" s="107"/>
-      <c r="B139" s="110"/>
+      <c r="A139" s="119"/>
+      <c r="B139" s="122"/>
       <c r="C139" s="55" t="s">
         <v>178</v>
       </c>
       <c r="D139" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="G139" s="125"/>
+      <c r="G139" s="108"/>
       <c r="I139" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12252,15 +12252,15 @@
       </c>
     </row>
     <row r="140" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="119"/>
-      <c r="B140" s="112"/>
+      <c r="A140" s="120"/>
+      <c r="B140" s="123"/>
       <c r="C140" s="56" t="s">
         <v>144</v>
       </c>
       <c r="D140" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="G140" s="126"/>
+      <c r="G140" s="124"/>
       <c r="I140" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12312,10 +12312,10 @@
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A141" s="122" t="s">
+      <c r="A141" s="118" t="s">
         <v>145</v>
       </c>
-      <c r="B141" s="123" t="s">
+      <c r="B141" s="121" t="s">
         <v>146</v>
       </c>
       <c r="C141" s="52" t="s">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="E141" s="45"/>
       <c r="F141" s="46"/>
-      <c r="G141" s="120" t="s">
+      <c r="G141" s="107" t="s">
         <v>148</v>
       </c>
       <c r="H141" s="85"/>
@@ -12381,15 +12381,15 @@
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A142" s="107"/>
-      <c r="B142" s="110"/>
+      <c r="A142" s="119"/>
+      <c r="B142" s="122"/>
       <c r="C142" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G142" s="125"/>
+      <c r="G142" s="108"/>
       <c r="I142" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12441,8 +12441,8 @@
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A143" s="107"/>
-      <c r="B143" s="110"/>
+      <c r="A143" s="119"/>
+      <c r="B143" s="122"/>
       <c r="C143" s="55" t="s">
         <v>199</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>200</v>
       </c>
       <c r="E143" s="26"/>
-      <c r="G143" s="125"/>
+      <c r="G143" s="108"/>
       <c r="I143" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12502,8 +12502,8 @@
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A144" s="107"/>
-      <c r="B144" s="110"/>
+      <c r="A144" s="119"/>
+      <c r="B144" s="122"/>
       <c r="C144" s="55" t="s">
         <v>201</v>
       </c>
@@ -12512,7 +12512,7 @@
       </c>
       <c r="E144" s="31"/>
       <c r="F144" s="32"/>
-      <c r="G144" s="121"/>
+      <c r="G144" s="106"/>
       <c r="H144" s="89"/>
       <c r="I144" s="89" t="str">
         <f t="shared" si="28"/>
@@ -12565,8 +12565,8 @@
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A145" s="107"/>
-      <c r="B145" s="109" t="s">
+      <c r="A145" s="119"/>
+      <c r="B145" s="125" t="s">
         <v>150</v>
       </c>
       <c r="C145" s="54" t="s">
@@ -12575,7 +12575,7 @@
       <c r="D145" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G145" s="124" t="s">
+      <c r="G145" s="105" t="s">
         <v>151</v>
       </c>
       <c r="I145" s="86" t="str">
@@ -12629,15 +12629,15 @@
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A146" s="107"/>
-      <c r="B146" s="110"/>
+      <c r="A146" s="119"/>
+      <c r="B146" s="122"/>
       <c r="C146" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D146" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G146" s="125"/>
+      <c r="G146" s="108"/>
       <c r="I146" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12689,8 +12689,8 @@
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A147" s="119"/>
-      <c r="B147" s="112"/>
+      <c r="A147" s="120"/>
+      <c r="B147" s="123"/>
       <c r="C147" s="56" t="s">
         <v>199</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>202</v>
       </c>
       <c r="E147" s="26"/>
-      <c r="G147" s="125"/>
+      <c r="G147" s="108"/>
       <c r="I147" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12750,15 +12750,15 @@
       </c>
     </row>
     <row r="148" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="119"/>
-      <c r="B148" s="112"/>
+      <c r="A148" s="120"/>
+      <c r="B148" s="123"/>
       <c r="C148" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D148" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G148" s="126"/>
+      <c r="G148" s="124"/>
       <c r="I148" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12810,10 +12810,10 @@
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A149" s="129" t="s">
+      <c r="A149" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="B149" s="132" t="s">
+      <c r="B149" s="112" t="s">
         <v>153</v>
       </c>
       <c r="C149" s="60" t="s">
@@ -12824,7 +12824,7 @@
       </c>
       <c r="E149" s="45"/>
       <c r="F149" s="46"/>
-      <c r="G149" s="120" t="s">
+      <c r="G149" s="107" t="s">
         <v>155</v>
       </c>
       <c r="H149" s="85"/>
@@ -12879,15 +12879,15 @@
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A150" s="130"/>
-      <c r="B150" s="133"/>
+      <c r="A150" s="110"/>
+      <c r="B150" s="113"/>
       <c r="C150" s="61" t="s">
         <v>156</v>
       </c>
       <c r="D150" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="G150" s="125"/>
+      <c r="G150" s="108"/>
       <c r="I150" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12939,15 +12939,15 @@
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A151" s="130"/>
-      <c r="B151" s="133"/>
+      <c r="A151" s="110"/>
+      <c r="B151" s="113"/>
       <c r="C151" s="61" t="s">
         <v>157</v>
       </c>
       <c r="D151" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G151" s="125"/>
+      <c r="G151" s="108"/>
       <c r="I151" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -12999,15 +12999,15 @@
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A152" s="130"/>
-      <c r="B152" s="133"/>
+      <c r="A152" s="110"/>
+      <c r="B152" s="113"/>
       <c r="C152" s="61" t="s">
         <v>158</v>
       </c>
       <c r="D152" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="G152" s="125"/>
+      <c r="G152" s="108"/>
       <c r="I152" s="86" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -13059,8 +13059,8 @@
       </c>
     </row>
     <row r="153" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="131"/>
-      <c r="B153" s="134"/>
+      <c r="A153" s="111"/>
+      <c r="B153" s="114"/>
       <c r="C153" s="62" t="s">
         <v>159</v>
       </c>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="E153" s="64"/>
       <c r="F153" s="65"/>
-      <c r="G153" s="135"/>
+      <c r="G153" s="115"/>
       <c r="H153" s="87"/>
       <c r="I153" s="87" t="str">
         <f t="shared" si="28"/>
@@ -13124,61 +13124,6 @@
     <row r="154" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G41:G47"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="G149:G153"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A131:A140"/>
-    <mergeCell ref="B131:B140"/>
-    <mergeCell ref="G131:G140"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="G141:G144"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="G145:G148"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A83:A130"/>
-    <mergeCell ref="B83:B98"/>
-    <mergeCell ref="B99:B114"/>
-    <mergeCell ref="B115:B130"/>
-    <mergeCell ref="A41:A82"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="A30:A40"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="G36:G40"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B3"/>
@@ -13195,6 +13140,61 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A30:A40"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="G36:G40"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A83:A130"/>
+    <mergeCell ref="B83:B98"/>
+    <mergeCell ref="B99:B114"/>
+    <mergeCell ref="B115:B130"/>
+    <mergeCell ref="A41:A82"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="G149:G153"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="G131:G140"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="G141:G144"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="G145:G148"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G41:G47"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G48:G51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
